--- a/BackTest/2019-10-27 BackTest LRC.xlsx
+++ b/BackTest/2019-10-27 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,13 +453,13 @@
         <v>14736.8589</v>
       </c>
       <c r="G2" t="n">
-        <v>-209315.4113589596</v>
+        <v>35.36666666666668</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,13 +489,13 @@
         <v>9644.629800000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-218960.0411589596</v>
+        <v>35.36666666666668</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>15576.6738</v>
       </c>
       <c r="G4" t="n">
-        <v>-218960.0411589596</v>
+        <v>35.33333333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>17159.7749</v>
       </c>
       <c r="G5" t="n">
-        <v>-201800.2662589596</v>
+        <v>35.33333333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>15258.7021</v>
       </c>
       <c r="G6" t="n">
-        <v>-217058.9683589596</v>
+        <v>35.23333333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>26948.1996</v>
       </c>
       <c r="G7" t="n">
-        <v>-190110.7687589596</v>
+        <v>35.30000000000002</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -641,6 +651,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -662,7 +673,7 @@
         <v>14644.1666</v>
       </c>
       <c r="G8" t="n">
-        <v>-175466.6021589596</v>
+        <v>35.36666666666668</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -682,6 +693,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -703,7 +715,7 @@
         <v>15795.665</v>
       </c>
       <c r="G9" t="n">
-        <v>-159670.9371589596</v>
+        <v>35.63333333333335</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -725,6 +737,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,13 +759,13 @@
         <v>8287.9247</v>
       </c>
       <c r="G10" t="n">
-        <v>-151383.0124589596</v>
+        <v>35.76666666666668</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -760,6 +773,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -781,13 +795,13 @@
         <v>1479</v>
       </c>
       <c r="G11" t="n">
-        <v>-152862.0124589596</v>
+        <v>35.83333333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -795,6 +809,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,7 +831,7 @@
         <v>20439.9787</v>
       </c>
       <c r="G12" t="n">
-        <v>-132422.0337589596</v>
+        <v>35.93333333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,6 +845,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -851,7 +867,7 @@
         <v>6805.7051</v>
       </c>
       <c r="G13" t="n">
-        <v>-139227.7388589596</v>
+        <v>35.70000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,6 +881,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -886,7 +903,7 @@
         <v>950</v>
       </c>
       <c r="G14" t="n">
-        <v>-138277.7388589596</v>
+        <v>35.73333333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,6 +917,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -921,7 +939,7 @@
         <v>2427</v>
       </c>
       <c r="G15" t="n">
-        <v>-138277.7388589596</v>
+        <v>35.66666666666668</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,6 +953,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -956,13 +975,13 @@
         <v>21.8055</v>
       </c>
       <c r="G16" t="n">
-        <v>-138255.9333589596</v>
+        <v>35.93333333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -970,6 +989,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -991,13 +1011,13 @@
         <v>36025.042</v>
       </c>
       <c r="G17" t="n">
-        <v>-174280.9753589596</v>
+        <v>35.76666666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1005,6 +1025,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1026,13 +1047,13 @@
         <v>23254.2954</v>
       </c>
       <c r="G18" t="n">
-        <v>-151026.6799589596</v>
+        <v>35.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1040,6 +1061,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1061,13 +1083,13 @@
         <v>1776.6364</v>
       </c>
       <c r="G19" t="n">
-        <v>-152803.3163589596</v>
+        <v>35.70000000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1075,6 +1097,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1096,7 +1119,7 @@
         <v>26.978</v>
       </c>
       <c r="G20" t="n">
-        <v>-152776.3383589596</v>
+        <v>36.03333333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,6 +1133,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1131,7 +1155,7 @@
         <v>1065</v>
       </c>
       <c r="G21" t="n">
-        <v>-153841.3383589596</v>
+        <v>35.96666666666668</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,6 +1169,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1166,7 +1191,7 @@
         <v>4847.7387</v>
       </c>
       <c r="G22" t="n">
-        <v>-158689.0770589595</v>
+        <v>35.96666666666668</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,6 +1205,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1201,13 +1227,13 @@
         <v>918.1887</v>
       </c>
       <c r="G23" t="n">
-        <v>-159607.2657589595</v>
+        <v>35.66666666666668</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1215,6 +1241,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1236,13 +1263,13 @@
         <v>3583.7033</v>
       </c>
       <c r="G24" t="n">
-        <v>-163190.9690589595</v>
+        <v>35.43333333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1250,6 +1277,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1271,7 +1299,7 @@
         <v>7317.9465</v>
       </c>
       <c r="G25" t="n">
-        <v>-170508.9155589595</v>
+        <v>35.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,6 +1313,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1306,7 +1335,7 @@
         <v>5111.666</v>
       </c>
       <c r="G26" t="n">
-        <v>-170508.9155589595</v>
+        <v>35.03333333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,6 +1349,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1341,7 +1371,7 @@
         <v>8290.1685</v>
       </c>
       <c r="G27" t="n">
-        <v>-178799.0840589595</v>
+        <v>34.96666666666668</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,6 +1385,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1376,7 +1407,7 @@
         <v>0.0005</v>
       </c>
       <c r="G28" t="n">
-        <v>-178799.0835589595</v>
+        <v>34.96666666666668</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,6 +1421,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1411,7 +1443,7 @@
         <v>1460.759</v>
       </c>
       <c r="G29" t="n">
-        <v>-178799.0835589595</v>
+        <v>34.96666666666668</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,6 +1457,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1446,7 +1479,7 @@
         <v>2718.989</v>
       </c>
       <c r="G30" t="n">
-        <v>-176080.0945589595</v>
+        <v>35.03333333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,6 +1493,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1481,7 +1515,7 @@
         <v>8664.989</v>
       </c>
       <c r="G31" t="n">
-        <v>-167415.1055589595</v>
+        <v>35.20000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,6 +1529,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1516,7 +1551,7 @@
         <v>5786.3401</v>
       </c>
       <c r="G32" t="n">
-        <v>-167415.1055589595</v>
+        <v>35.36666666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,6 +1565,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1551,13 +1587,13 @@
         <v>1298</v>
       </c>
       <c r="G33" t="n">
-        <v>-168713.1055589595</v>
+        <v>35.46666666666668</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1565,6 +1601,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1586,13 +1623,13 @@
         <v>2242.7345</v>
       </c>
       <c r="G34" t="n">
-        <v>-170955.8400589595</v>
+        <v>35.40000000000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1600,6 +1637,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1621,7 +1659,7 @@
         <v>500</v>
       </c>
       <c r="G35" t="n">
-        <v>-171455.8400589595</v>
+        <v>35.26666666666668</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,6 +1673,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1656,7 +1695,7 @@
         <v>52050</v>
       </c>
       <c r="G36" t="n">
-        <v>-223505.8400589595</v>
+        <v>35.00000000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,6 +1709,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1691,7 +1731,7 @@
         <v>1356.72</v>
       </c>
       <c r="G37" t="n">
-        <v>-223505.8400589595</v>
+        <v>34.76666666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,6 +1745,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1726,7 +1767,7 @@
         <v>2216.2847</v>
       </c>
       <c r="G38" t="n">
-        <v>-223505.8400589595</v>
+        <v>34.60000000000002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,6 +1781,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1761,7 +1803,7 @@
         <v>5482.7215</v>
       </c>
       <c r="G39" t="n">
-        <v>-218023.1185589595</v>
+        <v>34.73333333333335</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,6 +1817,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1796,7 +1839,7 @@
         <v>8455</v>
       </c>
       <c r="G40" t="n">
-        <v>-226478.1185589595</v>
+        <v>34.80000000000002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,6 +1853,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1831,7 +1875,7 @@
         <v>44400</v>
       </c>
       <c r="G41" t="n">
-        <v>-182078.1185589595</v>
+        <v>34.93333333333336</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,6 +1889,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1866,7 +1911,7 @@
         <v>16706.9609</v>
       </c>
       <c r="G42" t="n">
-        <v>-182078.1185589595</v>
+        <v>34.93333333333336</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,6 +1925,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1901,7 +1947,7 @@
         <v>3294.797</v>
       </c>
       <c r="G43" t="n">
-        <v>-178783.3215589595</v>
+        <v>35.03333333333335</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,6 +1961,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1936,7 +1983,7 @@
         <v>5100</v>
       </c>
       <c r="G44" t="n">
-        <v>-183883.3215589595</v>
+        <v>34.93333333333336</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,6 +1997,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1971,7 +2019,7 @@
         <v>3294.797</v>
       </c>
       <c r="G45" t="n">
-        <v>-180588.5245589595</v>
+        <v>34.8666666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,6 +2033,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2006,7 +2055,7 @@
         <v>1240.327</v>
       </c>
       <c r="G46" t="n">
-        <v>-180588.5245589595</v>
+        <v>34.7666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,6 +2069,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2041,7 +2091,7 @@
         <v>17282.6801</v>
       </c>
       <c r="G47" t="n">
-        <v>-180588.5245589595</v>
+        <v>34.80000000000003</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,6 +2105,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2076,7 +2127,7 @@
         <v>55654.7202</v>
       </c>
       <c r="G48" t="n">
-        <v>-236243.2447589595</v>
+        <v>34.76666666666669</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,6 +2141,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2111,7 +2163,7 @@
         <v>24293.5083</v>
       </c>
       <c r="G49" t="n">
-        <v>-260536.7530589596</v>
+        <v>34.66666666666669</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,6 +2177,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2146,7 +2199,7 @@
         <v>6022.3809</v>
       </c>
       <c r="G50" t="n">
-        <v>-254514.3721589596</v>
+        <v>34.73333333333336</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,6 +2213,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2181,7 +2235,7 @@
         <v>1312.6756</v>
       </c>
       <c r="G51" t="n">
-        <v>-253201.6965589596</v>
+        <v>34.86666666666669</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,6 +2249,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2216,7 +2271,7 @@
         <v>1884</v>
       </c>
       <c r="G52" t="n">
-        <v>-251317.6965589596</v>
+        <v>35.13333333333335</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,6 +2285,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2251,7 +2307,7 @@
         <v>2569.3269</v>
       </c>
       <c r="G53" t="n">
-        <v>-253887.0234589596</v>
+        <v>35.20000000000002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,6 +2321,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2286,7 +2343,7 @@
         <v>1477.8131</v>
       </c>
       <c r="G54" t="n">
-        <v>-253887.0234589596</v>
+        <v>35.23333333333336</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,6 +2357,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2321,7 +2379,7 @@
         <v>2316.793726553673</v>
       </c>
       <c r="G55" t="n">
-        <v>-251570.2297324059</v>
+        <v>35.26666666666669</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,6 +2393,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2356,7 +2415,7 @@
         <v>86.4689</v>
       </c>
       <c r="G56" t="n">
-        <v>-251656.6986324059</v>
+        <v>35.23333333333336</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,6 +2429,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2391,7 +2451,7 @@
         <v>9622</v>
       </c>
       <c r="G57" t="n">
-        <v>-251656.6986324059</v>
+        <v>35.20000000000003</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,6 +2465,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2426,7 +2487,7 @@
         <v>15286.4247</v>
       </c>
       <c r="G58" t="n">
-        <v>-251656.6986324059</v>
+        <v>35.10000000000003</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,6 +2501,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2461,7 +2523,7 @@
         <v>38122.0251</v>
       </c>
       <c r="G59" t="n">
-        <v>-251656.6986324059</v>
+        <v>35.10000000000003</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,6 +2537,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2496,7 +2559,7 @@
         <v>1231.2168</v>
       </c>
       <c r="G60" t="n">
-        <v>-250425.4818324059</v>
+        <v>35.13333333333338</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,6 +2573,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2531,7 +2595,7 @@
         <v>1141.3311</v>
       </c>
       <c r="G61" t="n">
-        <v>-250425.4818324059</v>
+        <v>35.16666666666671</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,6 +2609,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2566,7 +2631,7 @@
         <v>3238.636</v>
       </c>
       <c r="G62" t="n">
-        <v>-253664.1178324059</v>
+        <v>35.16666666666671</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,6 +2645,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2601,7 +2667,7 @@
         <v>105504.2889</v>
       </c>
       <c r="G63" t="n">
-        <v>-359168.4067324059</v>
+        <v>35.10000000000004</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,6 +2681,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2636,7 +2703,7 @@
         <v>25049.0282</v>
       </c>
       <c r="G64" t="n">
-        <v>-334119.3785324059</v>
+        <v>35.06666666666671</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,6 +2717,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2671,7 +2739,7 @@
         <v>65561.3713</v>
       </c>
       <c r="G65" t="n">
-        <v>-399680.7498324059</v>
+        <v>35.03333333333339</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,6 +2753,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2706,7 +2775,7 @@
         <v>50576</v>
       </c>
       <c r="G66" t="n">
-        <v>-399680.7498324059</v>
+        <v>35.03333333333339</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,6 +2789,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2741,7 +2811,7 @@
         <v>7321.4208</v>
       </c>
       <c r="G67" t="n">
-        <v>-399680.7498324059</v>
+        <v>35.00000000000006</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,6 +2825,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2776,7 +2847,7 @@
         <v>27737.8293</v>
       </c>
       <c r="G68" t="n">
-        <v>-399680.7498324059</v>
+        <v>35.00000000000006</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,6 +2861,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2811,7 +2883,7 @@
         <v>671.4166</v>
       </c>
       <c r="G69" t="n">
-        <v>-399680.7498324059</v>
+        <v>35.00000000000006</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,6 +2897,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2846,7 +2919,7 @@
         <v>2912.1278</v>
       </c>
       <c r="G70" t="n">
-        <v>-396768.6220324059</v>
+        <v>35.06666666666672</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,6 +2933,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2881,7 +2955,7 @@
         <v>19934.8725</v>
       </c>
       <c r="G71" t="n">
-        <v>-376833.7495324059</v>
+        <v>35.16666666666672</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,6 +2969,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2916,7 +2991,7 @@
         <v>5842.779</v>
       </c>
       <c r="G72" t="n">
-        <v>-376833.7495324059</v>
+        <v>35.26666666666673</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,6 +3005,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2951,7 +3027,7 @@
         <v>4754.0867</v>
       </c>
       <c r="G73" t="n">
-        <v>-376833.7495324059</v>
+        <v>35.30000000000006</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,6 +3041,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2986,7 +3063,7 @@
         <v>3375</v>
       </c>
       <c r="G74" t="n">
-        <v>-380208.7495324059</v>
+        <v>35.26666666666673</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,6 +3077,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3021,7 +3099,7 @@
         <v>8407.2253</v>
       </c>
       <c r="G75" t="n">
-        <v>-371801.5242324059</v>
+        <v>35.26666666666673</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,6 +3113,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3056,7 +3135,7 @@
         <v>3306.818</v>
       </c>
       <c r="G76" t="n">
-        <v>-371801.5242324059</v>
+        <v>35.26666666666673</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,6 +3149,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3091,7 +3171,7 @@
         <v>8386.2073</v>
       </c>
       <c r="G77" t="n">
-        <v>-363415.3169324059</v>
+        <v>35.33333333333339</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,6 +3185,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3126,7 +3207,7 @@
         <v>1049.4262</v>
       </c>
       <c r="G78" t="n">
-        <v>-362365.8907324059</v>
+        <v>35.4333333333334</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,6 +3221,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3161,7 +3243,7 @@
         <v>12600.2781</v>
       </c>
       <c r="G79" t="n">
-        <v>-374966.1688324059</v>
+        <v>35.50000000000006</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,6 +3257,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3196,7 +3279,7 @@
         <v>4585.836</v>
       </c>
       <c r="G80" t="n">
-        <v>-374966.1688324059</v>
+        <v>35.53333333333339</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,6 +3293,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3231,7 +3315,7 @@
         <v>2812.3366</v>
       </c>
       <c r="G81" t="n">
-        <v>-374966.1688324059</v>
+        <v>35.50000000000006</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,6 +3329,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3266,7 +3351,7 @@
         <v>58262.1398</v>
       </c>
       <c r="G82" t="n">
-        <v>-433228.3086324059</v>
+        <v>35.40000000000006</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,6 +3365,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3301,7 +3387,7 @@
         <v>3145.0123</v>
       </c>
       <c r="G83" t="n">
-        <v>-430083.2963324059</v>
+        <v>35.33333333333339</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,6 +3401,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3336,7 +3423,7 @@
         <v>2244.8058</v>
       </c>
       <c r="G84" t="n">
-        <v>-430083.2963324059</v>
+        <v>35.26666666666673</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,6 +3437,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3371,7 +3459,7 @@
         <v>106453.6454</v>
       </c>
       <c r="G85" t="n">
-        <v>-323629.650932406</v>
+        <v>35.33333333333339</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,6 +3473,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3406,7 +3495,7 @@
         <v>50953.1625</v>
       </c>
       <c r="G86" t="n">
-        <v>-272676.488432406</v>
+        <v>35.4333333333334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,6 +3509,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3441,7 +3531,7 @@
         <v>1374.9822</v>
       </c>
       <c r="G87" t="n">
-        <v>-274051.470632406</v>
+        <v>35.50000000000006</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,6 +3545,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3476,7 +3567,7 @@
         <v>56585.074</v>
       </c>
       <c r="G88" t="n">
-        <v>-274051.470632406</v>
+        <v>35.53333333333339</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,6 +3581,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3511,7 +3603,7 @@
         <v>1360.5744</v>
       </c>
       <c r="G89" t="n">
-        <v>-274051.470632406</v>
+        <v>35.50000000000006</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,6 +3617,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3546,7 +3639,7 @@
         <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>-274041.470632406</v>
+        <v>35.56666666666672</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,6 +3653,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3581,7 +3675,7 @@
         <v>6900</v>
       </c>
       <c r="G91" t="n">
-        <v>-280941.470632406</v>
+        <v>35.53333333333339</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,6 +3689,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3616,7 +3711,7 @@
         <v>8000</v>
       </c>
       <c r="G92" t="n">
-        <v>-280941.470632406</v>
+        <v>35.50000000000006</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,6 +3725,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3651,7 +3747,7 @@
         <v>14918.6592</v>
       </c>
       <c r="G93" t="n">
-        <v>-266022.811432406</v>
+        <v>35.5333333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,6 +3761,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3686,7 +3783,7 @@
         <v>20672.091</v>
       </c>
       <c r="G94" t="n">
-        <v>-286694.902432406</v>
+        <v>35.60000000000006</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,6 +3797,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3721,7 +3819,7 @@
         <v>2085.555</v>
       </c>
       <c r="G95" t="n">
-        <v>-284609.347432406</v>
+        <v>35.80000000000006</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,6 +3833,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3756,7 +3855,7 @@
         <v>52650</v>
       </c>
       <c r="G96" t="n">
-        <v>-337259.347432406</v>
+        <v>35.70000000000006</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,6 +3869,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3791,7 +3891,7 @@
         <v>42933.0036</v>
       </c>
       <c r="G97" t="n">
-        <v>-380192.351032406</v>
+        <v>35.63333333333339</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,6 +3905,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3826,7 +3927,7 @@
         <v>12000</v>
       </c>
       <c r="G98" t="n">
-        <v>-380192.351032406</v>
+        <v>35.43333333333339</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,6 +3941,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3861,7 +3963,7 @@
         <v>14346.9813</v>
       </c>
       <c r="G99" t="n">
-        <v>-365845.369732406</v>
+        <v>35.43333333333339</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,6 +3977,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3896,7 +3999,7 @@
         <v>7493.9213</v>
       </c>
       <c r="G100" t="n">
-        <v>-358351.4484324061</v>
+        <v>35.53333333333339</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,6 +4013,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3931,7 +4035,7 @@
         <v>14580.677</v>
       </c>
       <c r="G101" t="n">
-        <v>-372932.1254324061</v>
+        <v>35.60000000000005</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3945,6 +4049,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3966,7 +4071,7 @@
         <v>995.9999</v>
       </c>
       <c r="G102" t="n">
-        <v>-372932.1254324061</v>
+        <v>35.63333333333338</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,6 +4085,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4001,7 +4107,7 @@
         <v>5280.7316</v>
       </c>
       <c r="G103" t="n">
-        <v>-367651.3938324061</v>
+        <v>35.63333333333338</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,6 +4121,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4036,7 +4143,7 @@
         <v>2565.2489</v>
       </c>
       <c r="G104" t="n">
-        <v>-370216.6427324061</v>
+        <v>35.63333333333338</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,6 +4157,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4071,7 +4179,7 @@
         <v>11526.6621</v>
       </c>
       <c r="G105" t="n">
-        <v>-381743.3048324061</v>
+        <v>35.60000000000005</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,6 +4193,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4106,7 +4215,7 @@
         <v>7500</v>
       </c>
       <c r="G106" t="n">
-        <v>-381743.3048324061</v>
+        <v>35.53333333333338</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,6 +4229,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4141,7 +4251,7 @@
         <v>1109.2687</v>
       </c>
       <c r="G107" t="n">
-        <v>-380634.0361324061</v>
+        <v>35.60000000000005</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,6 +4265,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest LRC.xlsx
+++ b/BackTest/2019-10-27 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>35.4</v>
+        <v>35.6</v>
       </c>
       <c r="C2" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="D2" t="n">
-        <v>35.4</v>
+        <v>37</v>
       </c>
       <c r="E2" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="F2" t="n">
-        <v>14736.8589</v>
+        <v>339412.8899</v>
       </c>
       <c r="G2" t="n">
-        <v>35.36666666666668</v>
+        <v>-204969.5865589596</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35.3</v>
+        <v>35.7</v>
       </c>
       <c r="C3" t="n">
-        <v>35.3</v>
+        <v>35.9</v>
       </c>
       <c r="D3" t="n">
-        <v>35.3</v>
+        <v>36.7</v>
       </c>
       <c r="E3" t="n">
-        <v>35.3</v>
+        <v>35.7</v>
       </c>
       <c r="F3" t="n">
-        <v>9644.629800000001</v>
+        <v>53092</v>
       </c>
       <c r="G3" t="n">
-        <v>35.36666666666668</v>
+        <v>-151877.5865589596</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35.4</v>
+        <v>35.9</v>
       </c>
       <c r="C4" t="n">
-        <v>35.3</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>35.4</v>
+        <v>36.4</v>
       </c>
       <c r="E4" t="n">
-        <v>35.3</v>
+        <v>35.9</v>
       </c>
       <c r="F4" t="n">
-        <v>15576.6738</v>
+        <v>74904.61229999999</v>
       </c>
       <c r="G4" t="n">
-        <v>35.33333333333334</v>
+        <v>-76972.97425895957</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35.4</v>
+        <v>36.6</v>
       </c>
       <c r="C5" t="n">
-        <v>35.4</v>
+        <v>36.3</v>
       </c>
       <c r="D5" t="n">
-        <v>35.4</v>
+        <v>36.7</v>
       </c>
       <c r="E5" t="n">
-        <v>35.3</v>
+        <v>36</v>
       </c>
       <c r="F5" t="n">
-        <v>17159.7749</v>
+        <v>111907.8801</v>
       </c>
       <c r="G5" t="n">
-        <v>35.33333333333334</v>
+        <v>34934.90584104043</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35.1</v>
+        <v>36.3</v>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>36.7</v>
       </c>
       <c r="D6" t="n">
-        <v>35.1</v>
+        <v>36.8</v>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" t="n">
-        <v>15258.7021</v>
+        <v>33052.3343</v>
       </c>
       <c r="G6" t="n">
-        <v>35.23333333333334</v>
+        <v>67987.24014104043</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,35 +618,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>35.4</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>35.5</v>
+        <v>36.4</v>
       </c>
       <c r="D7" t="n">
-        <v>35.5</v>
+        <v>36.4</v>
       </c>
       <c r="E7" t="n">
-        <v>35.4</v>
+        <v>35.8</v>
       </c>
       <c r="F7" t="n">
-        <v>26948.1996</v>
+        <v>55495.1181</v>
       </c>
       <c r="G7" t="n">
-        <v>35.30000000000002</v>
+        <v>12492.12204104043</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>35</v>
-      </c>
-      <c r="K7" t="n">
-        <v>35</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
@@ -658,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>35.6</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>35.6</v>
+        <v>36.1</v>
       </c>
       <c r="D8" t="n">
-        <v>35.6</v>
+        <v>36.7</v>
       </c>
       <c r="E8" t="n">
-        <v>35.6</v>
+        <v>36</v>
       </c>
       <c r="F8" t="n">
-        <v>14644.1666</v>
+        <v>43328.6263</v>
       </c>
       <c r="G8" t="n">
-        <v>35.36666666666668</v>
+        <v>-30836.50425895958</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -682,14 +678,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>35</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -700,40 +690,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>35.7</v>
+        <v>36.1</v>
       </c>
       <c r="C9" t="n">
-        <v>35.8</v>
+        <v>36.5</v>
       </c>
       <c r="D9" t="n">
-        <v>35.8</v>
+        <v>36.7</v>
       </c>
       <c r="E9" t="n">
-        <v>35.7</v>
+        <v>36</v>
       </c>
       <c r="F9" t="n">
-        <v>15795.665</v>
+        <v>67278.56909999999</v>
       </c>
       <c r="G9" t="n">
-        <v>35.63333333333335</v>
+        <v>36442.06484104042</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>35</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -744,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="C10" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="D10" t="n">
-        <v>35.9</v>
+        <v>36.8</v>
       </c>
       <c r="E10" t="n">
-        <v>35.9</v>
+        <v>36.1</v>
       </c>
       <c r="F10" t="n">
-        <v>8287.9247</v>
+        <v>71044.4552</v>
       </c>
       <c r="G10" t="n">
-        <v>35.76666666666668</v>
+        <v>-34602.39035895958</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -780,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>35.8</v>
+        <v>36.2</v>
       </c>
       <c r="C11" t="n">
-        <v>35.8</v>
+        <v>36.3</v>
       </c>
       <c r="D11" t="n">
-        <v>35.8</v>
+        <v>36.4</v>
       </c>
       <c r="E11" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="F11" t="n">
-        <v>1479</v>
+        <v>62007.6547</v>
       </c>
       <c r="G11" t="n">
-        <v>35.83333333333334</v>
+        <v>27405.26434104042</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -816,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>36</v>
+        <v>36.3</v>
       </c>
       <c r="C12" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E12" t="n">
         <v>36.1</v>
       </c>
-      <c r="D12" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>36</v>
-      </c>
       <c r="F12" t="n">
-        <v>20439.9787</v>
+        <v>732</v>
       </c>
       <c r="G12" t="n">
-        <v>35.93333333333334</v>
+        <v>28137.26434104042</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -852,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>35.7</v>
+        <v>36.4</v>
       </c>
       <c r="C13" t="n">
-        <v>35.2</v>
+        <v>36.1</v>
       </c>
       <c r="D13" t="n">
-        <v>35.7</v>
+        <v>36.7</v>
       </c>
       <c r="E13" t="n">
-        <v>35.2</v>
+        <v>36</v>
       </c>
       <c r="F13" t="n">
-        <v>6805.7051</v>
+        <v>15953.2821</v>
       </c>
       <c r="G13" t="n">
-        <v>35.70000000000001</v>
+        <v>12183.98224104042</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -888,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>35.9</v>
+        <v>36.1</v>
       </c>
       <c r="C14" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="D14" t="n">
-        <v>35.9</v>
+        <v>36.6</v>
       </c>
       <c r="E14" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="F14" t="n">
-        <v>950</v>
+        <v>9518.861199999999</v>
       </c>
       <c r="G14" t="n">
-        <v>35.73333333333334</v>
+        <v>2665.12104104042</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -924,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>35.9</v>
+        <v>36.3</v>
       </c>
       <c r="C15" t="n">
-        <v>35.9</v>
+        <v>36.4</v>
       </c>
       <c r="D15" t="n">
-        <v>35.9</v>
+        <v>36.4</v>
       </c>
       <c r="E15" t="n">
-        <v>35.9</v>
+        <v>36.3</v>
       </c>
       <c r="F15" t="n">
-        <v>2427</v>
+        <v>40</v>
       </c>
       <c r="G15" t="n">
-        <v>35.66666666666668</v>
+        <v>2705.12104104042</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -960,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>35.5</v>
+        <v>36.5</v>
       </c>
       <c r="C16" t="n">
-        <v>36</v>
+        <v>36.4</v>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
+        <v>36.5</v>
       </c>
       <c r="E16" t="n">
-        <v>35.5</v>
+        <v>36.4</v>
       </c>
       <c r="F16" t="n">
-        <v>21.8055</v>
+        <v>29218</v>
       </c>
       <c r="G16" t="n">
-        <v>35.93333333333334</v>
+        <v>2705.12104104042</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -996,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>35.6</v>
+        <v>36.4</v>
       </c>
       <c r="C17" t="n">
-        <v>35.4</v>
+        <v>36</v>
       </c>
       <c r="D17" t="n">
-        <v>35.6</v>
+        <v>36.4</v>
       </c>
       <c r="E17" t="n">
-        <v>35.4</v>
+        <v>35.7</v>
       </c>
       <c r="F17" t="n">
-        <v>36025.042</v>
+        <v>111781.9397</v>
       </c>
       <c r="G17" t="n">
-        <v>35.76666666666667</v>
+        <v>-109076.8186589596</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1032,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="E18" t="n">
         <v>36</v>
       </c>
-      <c r="D18" t="n">
-        <v>36</v>
-      </c>
-      <c r="E18" t="n">
-        <v>35.9</v>
-      </c>
       <c r="F18" t="n">
-        <v>23254.2954</v>
+        <v>4751.9542</v>
       </c>
       <c r="G18" t="n">
-        <v>35.8</v>
+        <v>-104324.8644589596</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1068,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>36</v>
+        <v>36.7</v>
       </c>
       <c r="C19" t="n">
-        <v>35.7</v>
+        <v>36.7</v>
       </c>
       <c r="D19" t="n">
-        <v>36</v>
+        <v>36.7</v>
       </c>
       <c r="E19" t="n">
-        <v>35.7</v>
+        <v>36.7</v>
       </c>
       <c r="F19" t="n">
-        <v>1776.6364</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>35.70000000000001</v>
+        <v>-104314.8644589596</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1104,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="C20" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="D20" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="E20" t="n">
-        <v>36.4</v>
+        <v>36</v>
       </c>
       <c r="F20" t="n">
-        <v>26.978</v>
+        <v>3541</v>
       </c>
       <c r="G20" t="n">
-        <v>36.03333333333334</v>
+        <v>-107855.8644589596</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1140,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="C21" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="D21" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="E21" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="F21" t="n">
-        <v>1065</v>
+        <v>22286.4478</v>
       </c>
       <c r="G21" t="n">
-        <v>35.96666666666668</v>
+        <v>-130142.3122589596</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1176,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="C22" t="n">
-        <v>35.7</v>
+        <v>35.4</v>
       </c>
       <c r="D22" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="E22" t="n">
-        <v>35.7</v>
+        <v>35.4</v>
       </c>
       <c r="F22" t="n">
-        <v>4847.7387</v>
+        <v>69990.3186</v>
       </c>
       <c r="G22" t="n">
-        <v>35.96666666666668</v>
+        <v>-200132.6308589596</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1215,25 +1197,25 @@
         <v>35.5</v>
       </c>
       <c r="C23" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="D23" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="E23" t="n">
         <v>35.5</v>
       </c>
       <c r="F23" t="n">
-        <v>918.1887</v>
+        <v>42259.117</v>
       </c>
       <c r="G23" t="n">
-        <v>35.66666666666668</v>
+        <v>-157873.5138589596</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1248,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>35.4</v>
+        <v>35.7</v>
       </c>
       <c r="C24" t="n">
-        <v>35.1</v>
+        <v>35.7</v>
       </c>
       <c r="D24" t="n">
-        <v>35.4</v>
+        <v>35.7</v>
       </c>
       <c r="E24" t="n">
-        <v>35.1</v>
+        <v>35.7</v>
       </c>
       <c r="F24" t="n">
-        <v>3583.7033</v>
+        <v>7857</v>
       </c>
       <c r="G24" t="n">
-        <v>35.43333333333334</v>
+        <v>-150016.5138589596</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1284,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>35</v>
+        <v>35.8</v>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>35.7</v>
       </c>
       <c r="D25" t="n">
-        <v>35</v>
+        <v>35.8</v>
       </c>
       <c r="E25" t="n">
-        <v>35</v>
+        <v>35.7</v>
       </c>
       <c r="F25" t="n">
-        <v>7317.9465</v>
+        <v>24907.0825</v>
       </c>
       <c r="G25" t="n">
-        <v>35.2</v>
+        <v>-150016.5138589596</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1320,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>34.8</v>
+        <v>35.7</v>
       </c>
       <c r="C26" t="n">
-        <v>35</v>
+        <v>35.7</v>
       </c>
       <c r="D26" t="n">
-        <v>35</v>
+        <v>35.7</v>
       </c>
       <c r="E26" t="n">
-        <v>34.8</v>
+        <v>35.7</v>
       </c>
       <c r="F26" t="n">
-        <v>5111.666</v>
+        <v>520.6953999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>35.03333333333334</v>
+        <v>-150016.5138589596</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1356,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>34.9</v>
+        <v>35.5</v>
       </c>
       <c r="C27" t="n">
-        <v>34.9</v>
+        <v>35.5</v>
       </c>
       <c r="D27" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="E27" t="n">
-        <v>34.9</v>
+        <v>35.5</v>
       </c>
       <c r="F27" t="n">
-        <v>8290.1685</v>
+        <v>21403.4798</v>
       </c>
       <c r="G27" t="n">
-        <v>34.96666666666668</v>
+        <v>-171419.9936589596</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1392,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>35</v>
+        <v>35.4</v>
       </c>
       <c r="C28" t="n">
-        <v>35</v>
+        <v>35.6</v>
       </c>
       <c r="D28" t="n">
-        <v>35</v>
+        <v>35.6</v>
       </c>
       <c r="E28" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0005</v>
+        <v>22737.6286</v>
       </c>
       <c r="G28" t="n">
-        <v>34.96666666666668</v>
+        <v>-148682.3650589596</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1428,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="C29" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="D29" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="E29" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="F29" t="n">
-        <v>1460.759</v>
+        <v>75978.4532</v>
       </c>
       <c r="G29" t="n">
-        <v>34.96666666666668</v>
+        <v>-224660.8182589596</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1464,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>35.1</v>
+        <v>35.5</v>
       </c>
       <c r="C30" t="n">
-        <v>35.1</v>
+        <v>35.4</v>
       </c>
       <c r="D30" t="n">
-        <v>35.1</v>
+        <v>35.5</v>
       </c>
       <c r="E30" t="n">
-        <v>35.1</v>
+        <v>35.4</v>
       </c>
       <c r="F30" t="n">
-        <v>2718.989</v>
+        <v>15345.4069</v>
       </c>
       <c r="G30" t="n">
-        <v>35.03333333333334</v>
+        <v>-209315.4113589596</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1500,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>35.1</v>
+        <v>35.4</v>
       </c>
       <c r="C31" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="D31" t="n">
-        <v>35.6</v>
+        <v>35.4</v>
       </c>
       <c r="E31" t="n">
-        <v>35.1</v>
+        <v>35.4</v>
       </c>
       <c r="F31" t="n">
-        <v>8664.989</v>
+        <v>14736.8589</v>
       </c>
       <c r="G31" t="n">
-        <v>35.20000000000001</v>
+        <v>-209315.4113589596</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1536,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="C32" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="D32" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="E32" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="F32" t="n">
-        <v>5786.3401</v>
+        <v>9644.629800000001</v>
       </c>
       <c r="G32" t="n">
-        <v>35.36666666666667</v>
+        <v>-218960.0411589596</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1575,25 +1557,25 @@
         <v>35.4</v>
       </c>
       <c r="C33" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="D33" t="n">
         <v>35.4</v>
       </c>
       <c r="E33" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="F33" t="n">
-        <v>1298</v>
+        <v>15576.6738</v>
       </c>
       <c r="G33" t="n">
-        <v>35.46666666666668</v>
+        <v>-218960.0411589596</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1608,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>35.2</v>
+        <v>35.4</v>
       </c>
       <c r="C34" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="D34" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="E34" t="n">
         <v>35.3</v>
       </c>
-      <c r="D34" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="E34" t="n">
-        <v>35.2</v>
-      </c>
       <c r="F34" t="n">
-        <v>2242.7345</v>
+        <v>17159.7749</v>
       </c>
       <c r="G34" t="n">
-        <v>35.40000000000001</v>
+        <v>-201800.2662589596</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1647,19 +1629,19 @@
         <v>35.1</v>
       </c>
       <c r="C35" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="D35" t="n">
         <v>35.1</v>
       </c>
       <c r="E35" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="F35" t="n">
-        <v>500</v>
+        <v>15258.7021</v>
       </c>
       <c r="G35" t="n">
-        <v>35.26666666666668</v>
+        <v>-217058.9683589596</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1680,31 +1662,35 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>35</v>
+        <v>35.4</v>
       </c>
       <c r="C36" t="n">
-        <v>34.6</v>
+        <v>35.5</v>
       </c>
       <c r="D36" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="E36" t="n">
-        <v>34.6</v>
+        <v>35.4</v>
       </c>
       <c r="F36" t="n">
-        <v>52050</v>
+        <v>26948.1996</v>
       </c>
       <c r="G36" t="n">
-        <v>35.00000000000001</v>
+        <v>-190110.7687589596</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>35</v>
+      </c>
+      <c r="K36" t="n">
+        <v>35</v>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
@@ -1716,22 +1702,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>34.6</v>
+        <v>35.6</v>
       </c>
       <c r="C37" t="n">
-        <v>34.6</v>
+        <v>35.6</v>
       </c>
       <c r="D37" t="n">
-        <v>34.6</v>
+        <v>35.6</v>
       </c>
       <c r="E37" t="n">
-        <v>34.6</v>
+        <v>35.6</v>
       </c>
       <c r="F37" t="n">
-        <v>1356.72</v>
+        <v>14644.1666</v>
       </c>
       <c r="G37" t="n">
-        <v>34.76666666666667</v>
+        <v>-175466.6021589596</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1740,8 +1726,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>35</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1752,22 +1744,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34.6</v>
+        <v>35.7</v>
       </c>
       <c r="C38" t="n">
-        <v>34.6</v>
+        <v>35.8</v>
       </c>
       <c r="D38" t="n">
-        <v>34.6</v>
+        <v>35.8</v>
       </c>
       <c r="E38" t="n">
-        <v>34.6</v>
+        <v>35.7</v>
       </c>
       <c r="F38" t="n">
-        <v>2216.2847</v>
+        <v>15795.665</v>
       </c>
       <c r="G38" t="n">
-        <v>34.60000000000002</v>
+        <v>-159670.9371589596</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1776,8 +1768,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>35</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1788,22 +1786,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>35</v>
+        <v>35.9</v>
       </c>
       <c r="C39" t="n">
-        <v>35</v>
+        <v>35.9</v>
       </c>
       <c r="D39" t="n">
-        <v>35</v>
+        <v>35.9</v>
       </c>
       <c r="E39" t="n">
-        <v>35</v>
+        <v>35.9</v>
       </c>
       <c r="F39" t="n">
-        <v>5482.7215</v>
+        <v>8287.9247</v>
       </c>
       <c r="G39" t="n">
-        <v>34.73333333333335</v>
+        <v>-151383.0124589596</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1824,22 +1822,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>34.8</v>
+        <v>35.8</v>
       </c>
       <c r="C40" t="n">
-        <v>34.8</v>
+        <v>35.8</v>
       </c>
       <c r="D40" t="n">
-        <v>34.8</v>
+        <v>35.8</v>
       </c>
       <c r="E40" t="n">
-        <v>34.8</v>
+        <v>35.8</v>
       </c>
       <c r="F40" t="n">
-        <v>8455</v>
+        <v>1479</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80000000000002</v>
+        <v>-152862.0124589596</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1860,22 +1858,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>34.9</v>
+        <v>36</v>
       </c>
       <c r="C41" t="n">
-        <v>35</v>
+        <v>36.1</v>
       </c>
       <c r="D41" t="n">
-        <v>35</v>
+        <v>36.1</v>
       </c>
       <c r="E41" t="n">
-        <v>34.9</v>
+        <v>36</v>
       </c>
       <c r="F41" t="n">
-        <v>44400</v>
+        <v>20439.9787</v>
       </c>
       <c r="G41" t="n">
-        <v>34.93333333333336</v>
+        <v>-132422.0337589596</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1896,22 +1894,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>35</v>
+        <v>35.7</v>
       </c>
       <c r="C42" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="D42" t="n">
-        <v>35</v>
+        <v>35.7</v>
       </c>
       <c r="E42" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="F42" t="n">
-        <v>16706.9609</v>
+        <v>6805.7051</v>
       </c>
       <c r="G42" t="n">
-        <v>34.93333333333336</v>
+        <v>-139227.7388589596</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1932,22 +1930,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>35.1</v>
+        <v>35.9</v>
       </c>
       <c r="C43" t="n">
-        <v>35.1</v>
+        <v>35.9</v>
       </c>
       <c r="D43" t="n">
-        <v>35.1</v>
+        <v>35.9</v>
       </c>
       <c r="E43" t="n">
-        <v>35.1</v>
+        <v>35.9</v>
       </c>
       <c r="F43" t="n">
-        <v>3294.797</v>
+        <v>950</v>
       </c>
       <c r="G43" t="n">
-        <v>35.03333333333335</v>
+        <v>-138277.7388589596</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1968,22 +1966,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>34.9</v>
+        <v>35.9</v>
       </c>
       <c r="C44" t="n">
-        <v>34.7</v>
+        <v>35.9</v>
       </c>
       <c r="D44" t="n">
-        <v>34.9</v>
+        <v>35.9</v>
       </c>
       <c r="E44" t="n">
-        <v>34.7</v>
+        <v>35.9</v>
       </c>
       <c r="F44" t="n">
-        <v>5100</v>
+        <v>2427</v>
       </c>
       <c r="G44" t="n">
-        <v>34.93333333333336</v>
+        <v>-138277.7388589596</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2004,22 +2002,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>34.8</v>
+        <v>35.5</v>
       </c>
       <c r="C45" t="n">
-        <v>34.8</v>
+        <v>36</v>
       </c>
       <c r="D45" t="n">
-        <v>34.8</v>
+        <v>36</v>
       </c>
       <c r="E45" t="n">
-        <v>34.8</v>
+        <v>35.5</v>
       </c>
       <c r="F45" t="n">
-        <v>3294.797</v>
+        <v>21.8055</v>
       </c>
       <c r="G45" t="n">
-        <v>34.8666666666667</v>
+        <v>-138255.9333589596</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2040,22 +2038,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>34.8</v>
+        <v>35.6</v>
       </c>
       <c r="C46" t="n">
-        <v>34.8</v>
+        <v>35.4</v>
       </c>
       <c r="D46" t="n">
-        <v>34.8</v>
+        <v>35.6</v>
       </c>
       <c r="E46" t="n">
-        <v>34.8</v>
+        <v>35.4</v>
       </c>
       <c r="F46" t="n">
-        <v>1240.327</v>
+        <v>36025.042</v>
       </c>
       <c r="G46" t="n">
-        <v>34.7666666666667</v>
+        <v>-174280.9753589596</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2076,22 +2074,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>34.8</v>
+        <v>35.9</v>
       </c>
       <c r="C47" t="n">
-        <v>34.8</v>
+        <v>36</v>
       </c>
       <c r="D47" t="n">
-        <v>34.8</v>
+        <v>36</v>
       </c>
       <c r="E47" t="n">
-        <v>34.8</v>
+        <v>35.9</v>
       </c>
       <c r="F47" t="n">
-        <v>17282.6801</v>
+        <v>23254.2954</v>
       </c>
       <c r="G47" t="n">
-        <v>34.80000000000003</v>
+        <v>-151026.6799589596</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2112,22 +2110,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>34.7</v>
+        <v>36</v>
       </c>
       <c r="C48" t="n">
-        <v>34.7</v>
+        <v>35.7</v>
       </c>
       <c r="D48" t="n">
-        <v>34.7</v>
+        <v>36</v>
       </c>
       <c r="E48" t="n">
-        <v>34.6</v>
+        <v>35.7</v>
       </c>
       <c r="F48" t="n">
-        <v>55654.7202</v>
+        <v>1776.6364</v>
       </c>
       <c r="G48" t="n">
-        <v>34.76666666666669</v>
+        <v>-152803.3163589596</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2148,22 +2146,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>34.5</v>
+        <v>36.4</v>
       </c>
       <c r="C49" t="n">
-        <v>34.5</v>
+        <v>36.4</v>
       </c>
       <c r="D49" t="n">
-        <v>34.5</v>
+        <v>36.4</v>
       </c>
       <c r="E49" t="n">
-        <v>34.5</v>
+        <v>36.4</v>
       </c>
       <c r="F49" t="n">
-        <v>24293.5083</v>
+        <v>26.978</v>
       </c>
       <c r="G49" t="n">
-        <v>34.66666666666669</v>
+        <v>-152776.3383589596</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2184,22 +2182,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>34.9</v>
+        <v>35.8</v>
       </c>
       <c r="C50" t="n">
-        <v>35</v>
+        <v>35.8</v>
       </c>
       <c r="D50" t="n">
-        <v>35</v>
+        <v>35.8</v>
       </c>
       <c r="E50" t="n">
-        <v>34.9</v>
+        <v>35.8</v>
       </c>
       <c r="F50" t="n">
-        <v>6022.3809</v>
+        <v>1065</v>
       </c>
       <c r="G50" t="n">
-        <v>34.73333333333336</v>
+        <v>-153841.3383589596</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2220,22 +2218,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>35.1</v>
+        <v>35.8</v>
       </c>
       <c r="C51" t="n">
-        <v>35.1</v>
+        <v>35.7</v>
       </c>
       <c r="D51" t="n">
-        <v>35.1</v>
+        <v>35.8</v>
       </c>
       <c r="E51" t="n">
-        <v>35.1</v>
+        <v>35.7</v>
       </c>
       <c r="F51" t="n">
-        <v>1312.6756</v>
+        <v>4847.7387</v>
       </c>
       <c r="G51" t="n">
-        <v>34.86666666666669</v>
+        <v>-158689.0770589595</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2256,22 +2254,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="C52" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="D52" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="E52" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="F52" t="n">
-        <v>1884</v>
+        <v>918.1887</v>
       </c>
       <c r="G52" t="n">
-        <v>35.13333333333335</v>
+        <v>-159607.2657589595</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2292,22 +2290,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>35.2</v>
+        <v>35.4</v>
       </c>
       <c r="C53" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="D53" t="n">
-        <v>35.2</v>
+        <v>35.4</v>
       </c>
       <c r="E53" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="F53" t="n">
-        <v>2569.3269</v>
+        <v>3583.7033</v>
       </c>
       <c r="G53" t="n">
-        <v>35.20000000000002</v>
+        <v>-163190.9690589595</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2328,22 +2326,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="C54" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="D54" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="E54" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="F54" t="n">
-        <v>1477.8131</v>
+        <v>7317.9465</v>
       </c>
       <c r="G54" t="n">
-        <v>35.23333333333336</v>
+        <v>-170508.9155589595</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2364,22 +2362,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>35.4</v>
+        <v>34.8</v>
       </c>
       <c r="C55" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="E55" t="n">
-        <v>35.4</v>
+        <v>34.8</v>
       </c>
       <c r="F55" t="n">
-        <v>2316.793726553673</v>
+        <v>5111.666</v>
       </c>
       <c r="G55" t="n">
-        <v>35.26666666666669</v>
+        <v>-170508.9155589595</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2400,22 +2398,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="C56" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="D56" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="E56" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="F56" t="n">
-        <v>86.4689</v>
+        <v>8290.1685</v>
       </c>
       <c r="G56" t="n">
-        <v>35.23333333333336</v>
+        <v>-178799.0840589595</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2436,22 +2434,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="D57" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="E57" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="F57" t="n">
-        <v>9622</v>
+        <v>0.0005</v>
       </c>
       <c r="G57" t="n">
-        <v>35.20000000000003</v>
+        <v>-178799.0835589595</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2472,22 +2470,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="C58" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="D58" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="E58" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="F58" t="n">
-        <v>15286.4247</v>
+        <v>1460.759</v>
       </c>
       <c r="G58" t="n">
-        <v>35.10000000000003</v>
+        <v>-178799.0835589595</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2520,10 +2518,10 @@
         <v>35.1</v>
       </c>
       <c r="F59" t="n">
-        <v>38122.0251</v>
+        <v>2718.989</v>
       </c>
       <c r="G59" t="n">
-        <v>35.10000000000003</v>
+        <v>-176080.0945589595</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2544,22 +2542,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="C60" t="n">
-        <v>35.2</v>
+        <v>35.5</v>
       </c>
       <c r="D60" t="n">
-        <v>35.2</v>
+        <v>35.6</v>
       </c>
       <c r="E60" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="F60" t="n">
-        <v>1231.2168</v>
+        <v>8664.989</v>
       </c>
       <c r="G60" t="n">
-        <v>35.13333333333338</v>
+        <v>-167415.1055589595</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2580,22 +2578,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>35.2</v>
+        <v>35.5</v>
       </c>
       <c r="C61" t="n">
-        <v>35.2</v>
+        <v>35.5</v>
       </c>
       <c r="D61" t="n">
-        <v>35.2</v>
+        <v>35.5</v>
       </c>
       <c r="E61" t="n">
-        <v>35.2</v>
+        <v>35.5</v>
       </c>
       <c r="F61" t="n">
-        <v>1141.3311</v>
+        <v>5786.3401</v>
       </c>
       <c r="G61" t="n">
-        <v>35.16666666666671</v>
+        <v>-167415.1055589595</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2616,22 +2614,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>35.1</v>
+        <v>35.4</v>
       </c>
       <c r="C62" t="n">
-        <v>35.1</v>
+        <v>35.4</v>
       </c>
       <c r="D62" t="n">
-        <v>35.1</v>
+        <v>35.4</v>
       </c>
       <c r="E62" t="n">
-        <v>35.1</v>
+        <v>35.4</v>
       </c>
       <c r="F62" t="n">
-        <v>3238.636</v>
+        <v>1298</v>
       </c>
       <c r="G62" t="n">
-        <v>35.16666666666671</v>
+        <v>-168713.1055589595</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2652,22 +2650,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="C63" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="D63" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="E63" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="F63" t="n">
-        <v>105504.2889</v>
+        <v>2242.7345</v>
       </c>
       <c r="G63" t="n">
-        <v>35.10000000000004</v>
+        <v>-170955.8400589595</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2700,10 +2698,10 @@
         <v>35.1</v>
       </c>
       <c r="F64" t="n">
-        <v>25049.0282</v>
+        <v>500</v>
       </c>
       <c r="G64" t="n">
-        <v>35.06666666666671</v>
+        <v>-171455.8400589595</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2727,19 +2725,19 @@
         <v>35</v>
       </c>
       <c r="C65" t="n">
-        <v>35</v>
+        <v>34.6</v>
       </c>
       <c r="D65" t="n">
         <v>35</v>
       </c>
       <c r="E65" t="n">
-        <v>35</v>
+        <v>34.6</v>
       </c>
       <c r="F65" t="n">
-        <v>65561.3713</v>
+        <v>52050</v>
       </c>
       <c r="G65" t="n">
-        <v>35.03333333333339</v>
+        <v>-223505.8400589595</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2760,22 +2758,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>35.1</v>
+        <v>34.6</v>
       </c>
       <c r="C66" t="n">
-        <v>35</v>
+        <v>34.6</v>
       </c>
       <c r="D66" t="n">
-        <v>35.1</v>
+        <v>34.6</v>
       </c>
       <c r="E66" t="n">
-        <v>35</v>
+        <v>34.6</v>
       </c>
       <c r="F66" t="n">
-        <v>50576</v>
+        <v>1356.72</v>
       </c>
       <c r="G66" t="n">
-        <v>35.03333333333339</v>
+        <v>-223505.8400589595</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2796,22 +2794,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>35.1</v>
+        <v>34.6</v>
       </c>
       <c r="C67" t="n">
-        <v>35</v>
+        <v>34.6</v>
       </c>
       <c r="D67" t="n">
-        <v>35.1</v>
+        <v>34.6</v>
       </c>
       <c r="E67" t="n">
-        <v>35</v>
+        <v>34.6</v>
       </c>
       <c r="F67" t="n">
-        <v>7321.4208</v>
+        <v>2216.2847</v>
       </c>
       <c r="G67" t="n">
-        <v>35.00000000000006</v>
+        <v>-223505.8400589595</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2844,10 +2842,10 @@
         <v>35</v>
       </c>
       <c r="F68" t="n">
-        <v>27737.8293</v>
+        <v>5482.7215</v>
       </c>
       <c r="G68" t="n">
-        <v>35.00000000000006</v>
+        <v>-218023.1185589595</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2868,22 +2866,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="C69" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="D69" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="E69" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="F69" t="n">
-        <v>671.4166</v>
+        <v>8455</v>
       </c>
       <c r="G69" t="n">
-        <v>35.00000000000006</v>
+        <v>-226478.1185589595</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2904,22 +2902,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>35.2</v>
+        <v>34.9</v>
       </c>
       <c r="C70" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="D70" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="E70" t="n">
-        <v>35.2</v>
+        <v>34.9</v>
       </c>
       <c r="F70" t="n">
-        <v>2912.1278</v>
+        <v>44400</v>
       </c>
       <c r="G70" t="n">
-        <v>35.06666666666672</v>
+        <v>-182078.1185589595</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2940,22 +2938,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="C71" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="D71" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="E71" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="F71" t="n">
-        <v>19934.8725</v>
+        <v>16706.9609</v>
       </c>
       <c r="G71" t="n">
-        <v>35.16666666666672</v>
+        <v>-182078.1185589595</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2976,22 +2974,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="C72" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="D72" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="E72" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="F72" t="n">
-        <v>5842.779</v>
+        <v>3294.797</v>
       </c>
       <c r="G72" t="n">
-        <v>35.26666666666673</v>
+        <v>-178783.3215589595</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3012,22 +3010,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>35.3</v>
+        <v>34.9</v>
       </c>
       <c r="C73" t="n">
-        <v>35.3</v>
+        <v>34.7</v>
       </c>
       <c r="D73" t="n">
-        <v>35.3</v>
+        <v>34.9</v>
       </c>
       <c r="E73" t="n">
-        <v>35.3</v>
+        <v>34.7</v>
       </c>
       <c r="F73" t="n">
-        <v>4754.0867</v>
+        <v>5100</v>
       </c>
       <c r="G73" t="n">
-        <v>35.30000000000006</v>
+        <v>-183883.3215589595</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3048,22 +3046,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>35.2</v>
+        <v>34.8</v>
       </c>
       <c r="C74" t="n">
-        <v>35.2</v>
+        <v>34.8</v>
       </c>
       <c r="D74" t="n">
-        <v>35.2</v>
+        <v>34.8</v>
       </c>
       <c r="E74" t="n">
-        <v>35.2</v>
+        <v>34.8</v>
       </c>
       <c r="F74" t="n">
-        <v>3375</v>
+        <v>3294.797</v>
       </c>
       <c r="G74" t="n">
-        <v>35.26666666666673</v>
+        <v>-180588.5245589595</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3084,22 +3082,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>35.3</v>
+        <v>34.8</v>
       </c>
       <c r="C75" t="n">
-        <v>35.3</v>
+        <v>34.8</v>
       </c>
       <c r="D75" t="n">
-        <v>35.3</v>
+        <v>34.8</v>
       </c>
       <c r="E75" t="n">
-        <v>35.3</v>
+        <v>34.8</v>
       </c>
       <c r="F75" t="n">
-        <v>8407.2253</v>
+        <v>1240.327</v>
       </c>
       <c r="G75" t="n">
-        <v>35.26666666666673</v>
+        <v>-180588.5245589595</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3120,22 +3118,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>35.3</v>
+        <v>34.8</v>
       </c>
       <c r="C76" t="n">
-        <v>35.3</v>
+        <v>34.8</v>
       </c>
       <c r="D76" t="n">
-        <v>35.3</v>
+        <v>34.8</v>
       </c>
       <c r="E76" t="n">
-        <v>35.3</v>
+        <v>34.8</v>
       </c>
       <c r="F76" t="n">
-        <v>3306.818</v>
+        <v>17282.6801</v>
       </c>
       <c r="G76" t="n">
-        <v>35.26666666666673</v>
+        <v>-180588.5245589595</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3156,22 +3154,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>35.4</v>
+        <v>34.7</v>
       </c>
       <c r="C77" t="n">
-        <v>35.4</v>
+        <v>34.7</v>
       </c>
       <c r="D77" t="n">
-        <v>35.4</v>
+        <v>34.7</v>
       </c>
       <c r="E77" t="n">
-        <v>35.4</v>
+        <v>34.6</v>
       </c>
       <c r="F77" t="n">
-        <v>8386.2073</v>
+        <v>55654.7202</v>
       </c>
       <c r="G77" t="n">
-        <v>35.33333333333339</v>
+        <v>-236243.2447589595</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3192,31 +3190,35 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>35.6</v>
+        <v>34.5</v>
       </c>
       <c r="C78" t="n">
-        <v>35.6</v>
+        <v>34.5</v>
       </c>
       <c r="D78" t="n">
-        <v>35.6</v>
+        <v>34.5</v>
       </c>
       <c r="E78" t="n">
-        <v>35.6</v>
+        <v>34.5</v>
       </c>
       <c r="F78" t="n">
-        <v>1049.4262</v>
+        <v>24293.5083</v>
       </c>
       <c r="G78" t="n">
-        <v>35.4333333333334</v>
+        <v>-260536.7530589596</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="K78" t="n">
+        <v>34.7</v>
+      </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
@@ -3228,32 +3230,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>35.5</v>
+        <v>34.9</v>
       </c>
       <c r="C79" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="D79" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="E79" t="n">
-        <v>35.5</v>
+        <v>34.9</v>
       </c>
       <c r="F79" t="n">
-        <v>12600.2781</v>
+        <v>6022.3809</v>
       </c>
       <c r="G79" t="n">
-        <v>35.50000000000006</v>
+        <v>-254514.3721589596</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3264,32 +3274,40 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>35.5</v>
+        <v>35.1</v>
       </c>
       <c r="C80" t="n">
-        <v>35.5</v>
+        <v>35.1</v>
       </c>
       <c r="D80" t="n">
-        <v>35.5</v>
+        <v>35.1</v>
       </c>
       <c r="E80" t="n">
-        <v>35.5</v>
+        <v>35.1</v>
       </c>
       <c r="F80" t="n">
-        <v>4585.836</v>
+        <v>1312.6756</v>
       </c>
       <c r="G80" t="n">
-        <v>35.53333333333339</v>
+        <v>-253201.6965589596</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>35</v>
+      </c>
+      <c r="K80" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3300,22 +3318,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="C81" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="D81" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="E81" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="F81" t="n">
-        <v>2812.3366</v>
+        <v>1884</v>
       </c>
       <c r="G81" t="n">
-        <v>35.50000000000006</v>
+        <v>-251317.6965589596</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3336,22 +3354,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="C82" t="n">
         <v>35.2</v>
       </c>
       <c r="D82" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="E82" t="n">
         <v>35.2</v>
       </c>
       <c r="F82" t="n">
-        <v>58262.1398</v>
+        <v>2569.3269</v>
       </c>
       <c r="G82" t="n">
-        <v>35.40000000000006</v>
+        <v>-253887.0234589596</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3372,22 +3390,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="C83" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="D83" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="E83" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="F83" t="n">
-        <v>3145.0123</v>
+        <v>1477.8131</v>
       </c>
       <c r="G83" t="n">
-        <v>35.33333333333339</v>
+        <v>-253887.0234589596</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3411,19 +3429,19 @@
         <v>35.4</v>
       </c>
       <c r="C84" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="D84" t="n">
         <v>35.4</v>
       </c>
       <c r="E84" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="F84" t="n">
-        <v>2244.8058</v>
+        <v>2316.793726553673</v>
       </c>
       <c r="G84" t="n">
-        <v>35.26666666666673</v>
+        <v>-251570.2297324059</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3444,22 +3462,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="C85" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="D85" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="E85" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="F85" t="n">
-        <v>106453.6454</v>
+        <v>86.4689</v>
       </c>
       <c r="G85" t="n">
-        <v>35.33333333333339</v>
+        <v>-251656.6986324059</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3480,22 +3498,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>35.5</v>
+        <v>35.1</v>
       </c>
       <c r="C86" t="n">
-        <v>35.6</v>
+        <v>35.1</v>
       </c>
       <c r="D86" t="n">
-        <v>35.6</v>
+        <v>35.1</v>
       </c>
       <c r="E86" t="n">
-        <v>35.5</v>
+        <v>35.1</v>
       </c>
       <c r="F86" t="n">
-        <v>50953.1625</v>
+        <v>9622</v>
       </c>
       <c r="G86" t="n">
-        <v>35.4333333333334</v>
+        <v>-251656.6986324059</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3516,22 +3534,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>35.5</v>
+        <v>35.1</v>
       </c>
       <c r="C87" t="n">
-        <v>35.5</v>
+        <v>35.1</v>
       </c>
       <c r="D87" t="n">
-        <v>35.5</v>
+        <v>35.1</v>
       </c>
       <c r="E87" t="n">
-        <v>35.5</v>
+        <v>35.1</v>
       </c>
       <c r="F87" t="n">
-        <v>1374.9822</v>
+        <v>15286.4247</v>
       </c>
       <c r="G87" t="n">
-        <v>35.50000000000006</v>
+        <v>-251656.6986324059</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3552,22 +3570,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>35.5</v>
+        <v>35.1</v>
       </c>
       <c r="C88" t="n">
-        <v>35.5</v>
+        <v>35.1</v>
       </c>
       <c r="D88" t="n">
-        <v>35.5</v>
+        <v>35.1</v>
       </c>
       <c r="E88" t="n">
-        <v>35.5</v>
+        <v>35.1</v>
       </c>
       <c r="F88" t="n">
-        <v>56585.074</v>
+        <v>38122.0251</v>
       </c>
       <c r="G88" t="n">
-        <v>35.53333333333339</v>
+        <v>-251656.6986324059</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3588,22 +3606,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>35.5</v>
+        <v>35.2</v>
       </c>
       <c r="C89" t="n">
-        <v>35.5</v>
+        <v>35.2</v>
       </c>
       <c r="D89" t="n">
-        <v>35.5</v>
+        <v>35.2</v>
       </c>
       <c r="E89" t="n">
-        <v>35.5</v>
+        <v>35.2</v>
       </c>
       <c r="F89" t="n">
-        <v>1360.5744</v>
+        <v>1231.2168</v>
       </c>
       <c r="G89" t="n">
-        <v>35.50000000000006</v>
+        <v>-250425.4818324059</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3624,22 +3642,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>35.7</v>
+        <v>35.2</v>
       </c>
       <c r="C90" t="n">
-        <v>35.7</v>
+        <v>35.2</v>
       </c>
       <c r="D90" t="n">
-        <v>35.7</v>
+        <v>35.2</v>
       </c>
       <c r="E90" t="n">
-        <v>35.7</v>
+        <v>35.2</v>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>1141.3311</v>
       </c>
       <c r="G90" t="n">
-        <v>35.56666666666672</v>
+        <v>-250425.4818324059</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3660,22 +3678,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="C91" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="D91" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="E91" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="F91" t="n">
-        <v>6900</v>
+        <v>3238.636</v>
       </c>
       <c r="G91" t="n">
-        <v>35.53333333333339</v>
+        <v>-253664.1178324059</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3696,22 +3714,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="C92" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="D92" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="E92" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="F92" t="n">
-        <v>8000</v>
+        <v>105504.2889</v>
       </c>
       <c r="G92" t="n">
-        <v>35.50000000000006</v>
+        <v>-359168.4067324059</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3732,22 +3750,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>35.8</v>
+        <v>35.1</v>
       </c>
       <c r="C93" t="n">
-        <v>35.8</v>
+        <v>35.1</v>
       </c>
       <c r="D93" t="n">
-        <v>35.8</v>
+        <v>35.1</v>
       </c>
       <c r="E93" t="n">
-        <v>35.8</v>
+        <v>35.1</v>
       </c>
       <c r="F93" t="n">
-        <v>14918.6592</v>
+        <v>25049.0282</v>
       </c>
       <c r="G93" t="n">
-        <v>35.5333333333334</v>
+        <v>-334119.3785324059</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3768,22 +3786,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>35.9</v>
+        <v>35</v>
       </c>
       <c r="C94" t="n">
-        <v>35.6</v>
+        <v>35</v>
       </c>
       <c r="D94" t="n">
-        <v>35.9</v>
+        <v>35</v>
       </c>
       <c r="E94" t="n">
-        <v>35.6</v>
+        <v>35</v>
       </c>
       <c r="F94" t="n">
-        <v>20672.091</v>
+        <v>65561.3713</v>
       </c>
       <c r="G94" t="n">
-        <v>35.60000000000006</v>
+        <v>-399680.7498324059</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3804,22 +3822,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>35.6</v>
+        <v>35.1</v>
       </c>
       <c r="C95" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D95" t="n">
-        <v>36</v>
+        <v>35.1</v>
       </c>
       <c r="E95" t="n">
-        <v>35.6</v>
+        <v>35</v>
       </c>
       <c r="F95" t="n">
-        <v>2085.555</v>
+        <v>50576</v>
       </c>
       <c r="G95" t="n">
-        <v>35.80000000000006</v>
+        <v>-399680.7498324059</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3840,22 +3858,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>35.5</v>
+        <v>35.1</v>
       </c>
       <c r="C96" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="D96" t="n">
-        <v>35.5</v>
+        <v>35.1</v>
       </c>
       <c r="E96" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="F96" t="n">
-        <v>52650</v>
+        <v>7321.4208</v>
       </c>
       <c r="G96" t="n">
-        <v>35.70000000000006</v>
+        <v>-399680.7498324059</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3876,22 +3894,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="C97" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="D97" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="E97" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="F97" t="n">
-        <v>42933.0036</v>
+        <v>27737.8293</v>
       </c>
       <c r="G97" t="n">
-        <v>35.63333333333339</v>
+        <v>-399680.7498324059</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3912,22 +3930,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="C98" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="D98" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="E98" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="F98" t="n">
-        <v>12000</v>
+        <v>671.4166</v>
       </c>
       <c r="G98" t="n">
-        <v>35.43333333333339</v>
+        <v>-399680.7498324059</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3948,31 +3966,35 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>35.5</v>
+        <v>35.2</v>
       </c>
       <c r="C99" t="n">
-        <v>35.5</v>
+        <v>35.2</v>
       </c>
       <c r="D99" t="n">
-        <v>35.5</v>
+        <v>35.2</v>
       </c>
       <c r="E99" t="n">
-        <v>35.5</v>
+        <v>35.2</v>
       </c>
       <c r="F99" t="n">
-        <v>14346.9813</v>
+        <v>2912.1278</v>
       </c>
       <c r="G99" t="n">
-        <v>35.43333333333339</v>
+        <v>-396768.6220324059</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>35</v>
+      </c>
+      <c r="K99" t="n">
+        <v>35</v>
+      </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
@@ -3984,22 +4006,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="C100" t="n">
-        <v>35.7</v>
+        <v>35.3</v>
       </c>
       <c r="D100" t="n">
-        <v>35.7</v>
+        <v>35.3</v>
       </c>
       <c r="E100" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="F100" t="n">
-        <v>7493.9213</v>
+        <v>19934.8725</v>
       </c>
       <c r="G100" t="n">
-        <v>35.53333333333339</v>
+        <v>-376833.7495324059</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4008,8 +4030,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>35</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4020,22 +4048,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>35.6</v>
+        <v>35.3</v>
       </c>
       <c r="C101" t="n">
-        <v>35.6</v>
+        <v>35.3</v>
       </c>
       <c r="D101" t="n">
-        <v>35.6</v>
+        <v>35.3</v>
       </c>
       <c r="E101" t="n">
-        <v>35.6</v>
+        <v>35.3</v>
       </c>
       <c r="F101" t="n">
-        <v>14580.677</v>
+        <v>5842.779</v>
       </c>
       <c r="G101" t="n">
-        <v>35.60000000000005</v>
+        <v>-376833.7495324059</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4044,8 +4072,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>35</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4056,22 +4090,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>35.6</v>
+        <v>35.3</v>
       </c>
       <c r="C102" t="n">
-        <v>35.6</v>
+        <v>35.3</v>
       </c>
       <c r="D102" t="n">
-        <v>35.6</v>
+        <v>35.3</v>
       </c>
       <c r="E102" t="n">
-        <v>35.6</v>
+        <v>35.3</v>
       </c>
       <c r="F102" t="n">
-        <v>995.9999</v>
+        <v>4754.0867</v>
       </c>
       <c r="G102" t="n">
-        <v>35.63333333333338</v>
+        <v>-376833.7495324059</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4092,22 +4126,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>35.7</v>
+        <v>35.2</v>
       </c>
       <c r="C103" t="n">
-        <v>35.7</v>
+        <v>35.2</v>
       </c>
       <c r="D103" t="n">
-        <v>35.7</v>
+        <v>35.2</v>
       </c>
       <c r="E103" t="n">
-        <v>35.7</v>
+        <v>35.2</v>
       </c>
       <c r="F103" t="n">
-        <v>5280.7316</v>
+        <v>3375</v>
       </c>
       <c r="G103" t="n">
-        <v>35.63333333333338</v>
+        <v>-380208.7495324059</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4128,31 +4162,35 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>35.6</v>
+        <v>35.3</v>
       </c>
       <c r="C104" t="n">
-        <v>35.6</v>
+        <v>35.3</v>
       </c>
       <c r="D104" t="n">
-        <v>35.6</v>
+        <v>35.3</v>
       </c>
       <c r="E104" t="n">
-        <v>35.6</v>
+        <v>35.3</v>
       </c>
       <c r="F104" t="n">
-        <v>2565.2489</v>
+        <v>8407.2253</v>
       </c>
       <c r="G104" t="n">
-        <v>35.63333333333338</v>
+        <v>-371801.5242324059</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K104" t="n">
+        <v>35.2</v>
+      </c>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
@@ -4164,32 +4202,40 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>35.9</v>
+        <v>35.3</v>
       </c>
       <c r="C105" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="D105" t="n">
-        <v>35.9</v>
+        <v>35.3</v>
       </c>
       <c r="E105" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="F105" t="n">
-        <v>11526.6621</v>
+        <v>3306.818</v>
       </c>
       <c r="G105" t="n">
-        <v>35.60000000000005</v>
+        <v>-371801.5242324059</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="K105" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4200,32 +4246,40 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="C106" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="D106" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="E106" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="F106" t="n">
-        <v>7500</v>
+        <v>8386.2073</v>
       </c>
       <c r="G106" t="n">
-        <v>35.53333333333338</v>
+        <v>-363415.3169324059</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="K106" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4236,36 +4290,1306 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="C107" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="D107" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="E107" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="F107" t="n">
-        <v>1109.2687</v>
+        <v>1049.4262</v>
       </c>
       <c r="G107" t="n">
-        <v>35.60000000000005</v>
+        <v>-362365.8907324059</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="K107" t="n">
+        <v>35.4</v>
+      </c>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
       <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C108" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="D108" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E108" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>12600.2781</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-374966.1688324059</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="K108" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C109" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E109" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4585.836</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-374966.1688324059</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K109" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E110" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2812.3366</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-374966.1688324059</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K110" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="C111" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="E111" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="F111" t="n">
+        <v>58262.1398</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-433228.3086324059</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K111" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C112" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="D112" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E112" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3145.0123</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-430083.2963324059</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K112" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="C113" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="E113" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2244.8058</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-430083.2963324059</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="K113" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="C114" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="D114" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="E114" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="F114" t="n">
+        <v>106453.6454</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-323629.650932406</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="K114" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="D115" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="E115" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F115" t="n">
+        <v>50953.1625</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-272676.488432406</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="K115" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1374.9822</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-274051.470632406</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="K116" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C117" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="D117" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E117" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>56585.074</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-274051.470632406</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K117" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1360.5744</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-274051.470632406</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K118" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C119" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="D119" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="E119" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="F119" t="n">
+        <v>10</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-274041.470632406</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K119" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="C120" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="D120" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="E120" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>6900</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-280941.470632406</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="K120" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="C121" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="D121" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="E121" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-280941.470632406</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="K121" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="C122" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="D122" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="E122" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="F122" t="n">
+        <v>14918.6592</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-266022.811432406</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="K122" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C123" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="D123" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="E123" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="F123" t="n">
+        <v>20672.091</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-286694.902432406</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C124" t="n">
+        <v>36</v>
+      </c>
+      <c r="D124" t="n">
+        <v>36</v>
+      </c>
+      <c r="E124" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2085.555</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-284609.347432406</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C125" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="D125" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F125" t="n">
+        <v>52650</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-337259.347432406</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="D126" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E126" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>42933.0036</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-380192.351032406</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K126" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="C127" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="D127" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="E127" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-380192.351032406</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="K127" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>14346.9813</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-365845.369732406</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="K128" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="D129" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="E129" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>7493.9213</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-358351.4484324061</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K129" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="E130" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>14580.677</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-372932.1254324061</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="K130" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C131" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="D131" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="E131" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="F131" t="n">
+        <v>995.9999</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-372932.1254324061</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="K131" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C132" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="D132" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="E132" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5280.7316</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-367651.3938324061</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="K132" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C133" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="D133" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="E133" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2565.2489</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-370216.6427324061</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="K133" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C134" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="E134" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>11526.6621</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-381743.3048324061</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="K134" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-381743.3048324061</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K135" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="C136" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="D136" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="E136" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1109.2687</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-380634.0361324061</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K136" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest LRC.xlsx
+++ b/BackTest/2019-10-27 BackTest LRC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-30836.50425895958</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-34602.39035895958</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>27405.26434104042</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>28137.26434104042</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>12183.98224104042</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>2665.12104104042</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>2705.12104104042</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-109076.8186589596</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-104324.8644589596</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-104314.8644589596</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-107855.8644589596</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-130142.3122589596</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-200132.6308589596</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-218960.0411589596</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-201800.2662589596</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-217058.9683589596</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,20 +1575,13 @@
       <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>35</v>
-      </c>
-      <c r="K36" t="n">
-        <v>35</v>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1720,24 +1606,15 @@
         <v>-175466.6021589596</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>35</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1764,22 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>35</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1806,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1842,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1878,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1914,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1950,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1986,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2022,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2058,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2094,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2130,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2166,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2202,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2238,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2274,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2310,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2346,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2382,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2418,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2454,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2490,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2526,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2562,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2598,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2634,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2670,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2706,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2742,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2778,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2812,18 +2596,15 @@
         <v>-223505.8400589595</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2850,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2884,18 +2662,15 @@
         <v>-226478.1185589595</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2920,18 +2695,15 @@
         <v>-182078.1185589595</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2958,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2994,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3030,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3066,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3102,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3138,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3172,18 +2926,15 @@
         <v>-236243.2447589595</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3208,22 +2959,15 @@
         <v>-260536.7530589596</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="K78" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3248,26 +2992,15 @@
         <v>-254514.3721589596</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K79" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3292,26 +3025,15 @@
         <v>-253201.6965589596</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>35</v>
-      </c>
-      <c r="K80" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3338,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3374,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3410,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3446,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3482,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3518,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3554,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3590,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3626,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3662,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3698,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3734,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3770,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3806,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3842,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3878,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3914,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3950,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3984,22 +3652,15 @@
         <v>-396768.6220324059</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>35</v>
-      </c>
-      <c r="K99" t="n">
-        <v>35</v>
-      </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4026,22 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>35</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4068,22 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>35</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4110,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4146,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4180,22 +3817,15 @@
         <v>-371801.5242324059</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="K104" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4220,26 +3850,15 @@
         <v>-371801.5242324059</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="K105" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4264,26 +3883,15 @@
         <v>-363415.3169324059</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="K106" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4308,22 +3916,15 @@
         <v>-362365.8907324059</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="K107" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4348,26 +3949,15 @@
         <v>-374966.1688324059</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="K108" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4392,26 +3982,15 @@
         <v>-374966.1688324059</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K109" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4436,22 +4015,19 @@
         <v>-374966.1688324059</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="J110" t="n">
         <v>35.5</v>
       </c>
-      <c r="K110" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4476,26 +4052,23 @@
         <v>-433228.3086324059</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="J111" t="n">
         <v>35.5</v>
       </c>
-      <c r="K111" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4520,26 +4093,23 @@
         <v>-430083.2963324059</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>35.2</v>
       </c>
       <c r="J112" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="K112" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L112" t="inlineStr">
+        <v>35.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4564,26 +4134,23 @@
         <v>-430083.2963324059</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>35.3</v>
       </c>
       <c r="J113" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="K113" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L113" t="inlineStr">
+        <v>35.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4608,26 +4175,23 @@
         <v>-323629.650932406</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>35.3</v>
       </c>
       <c r="J114" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="K114" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L114" t="inlineStr">
+        <v>35.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4652,26 +4216,23 @@
         <v>-272676.488432406</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>35.4</v>
       </c>
       <c r="J115" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="K115" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L115" t="inlineStr">
+        <v>35.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4696,26 +4257,23 @@
         <v>-274051.470632406</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>35.6</v>
       </c>
       <c r="J116" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="K116" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L116" t="inlineStr">
+        <v>35.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4740,26 +4298,23 @@
         <v>-274051.470632406</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="J117" t="n">
         <v>35.5</v>
       </c>
-      <c r="K117" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4784,26 +4339,23 @@
         <v>-274051.470632406</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="J118" t="n">
         <v>35.5</v>
       </c>
-      <c r="K118" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4828,26 +4380,23 @@
         <v>-274041.470632406</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="J119" t="n">
         <v>35.5</v>
       </c>
-      <c r="K119" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4872,26 +4421,23 @@
         <v>-280941.470632406</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>35.7</v>
       </c>
       <c r="J120" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="K120" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L120" t="inlineStr">
+        <v>35.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4916,26 +4462,23 @@
         <v>-280941.470632406</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>35.4</v>
       </c>
       <c r="J121" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="K121" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L121" t="inlineStr">
+        <v>35.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4960,26 +4503,23 @@
         <v>-266022.811432406</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>35.4</v>
       </c>
       <c r="J122" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="K122" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L122" t="inlineStr">
+        <v>35.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5004,24 +4544,23 @@
         <v>-286694.902432406</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L123" t="inlineStr">
+        <v>35.8</v>
+      </c>
+      <c r="J123" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5048,22 +4587,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5090,22 +4626,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5130,26 +4663,23 @@
         <v>-380192.351032406</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="J126" t="n">
         <v>35.5</v>
       </c>
-      <c r="K126" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5174,26 +4704,23 @@
         <v>-380192.351032406</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>35.4</v>
       </c>
       <c r="J127" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="K127" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L127" t="inlineStr">
+        <v>35.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5218,26 +4745,23 @@
         <v>-365845.369732406</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>35.4</v>
       </c>
       <c r="J128" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="K128" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L128" t="inlineStr">
+        <v>35.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5262,26 +4786,23 @@
         <v>-358351.4484324061</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="J129" t="n">
         <v>35.5</v>
       </c>
-      <c r="K129" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5306,26 +4827,23 @@
         <v>-372932.1254324061</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>35.7</v>
       </c>
       <c r="J130" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="K130" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L130" t="inlineStr">
+        <v>35.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5350,26 +4868,23 @@
         <v>-372932.1254324061</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>35.6</v>
       </c>
       <c r="J131" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="K131" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L131" t="inlineStr">
+        <v>35.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5394,26 +4909,23 @@
         <v>-367651.3938324061</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>35.6</v>
       </c>
       <c r="J132" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="K132" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L132" t="inlineStr">
+        <v>35.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5438,26 +4950,23 @@
         <v>-370216.6427324061</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>35.7</v>
       </c>
       <c r="J133" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="K133" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L133" t="inlineStr">
+        <v>35.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5482,26 +4991,21 @@
         <v>-381743.3048324061</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="K134" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L134" t="inlineStr">
+        <v>35.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5526,26 +5030,21 @@
         <v>-381743.3048324061</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
         <v>35.5</v>
       </c>
-      <c r="K135" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5570,28 +5069,25 @@
         <v>-380634.0361324061</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="J136" t="n">
         <v>35.5</v>
       </c>
-      <c r="K136" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest LRC.xlsx
+++ b/BackTest/2019-10-27 BackTest LRC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>-30836.50425895958</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-34602.39035895958</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>27405.26434104042</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>28137.26434104042</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>12183.98224104042</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2665.12104104042</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2705.12104104042</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2705.12104104042</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-109076.8186589596</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-104324.8644589596</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-104314.8644589596</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-107855.8644589596</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-130142.3122589596</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-200132.6308589596</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-157873.5138589596</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-150016.5138589596</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-150016.5138589596</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-150016.5138589596</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-171419.9936589596</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-148682.3650589596</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-224660.8182589596</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-209315.4113589596</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-209315.4113589596</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-218960.0411589596</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-218960.0411589596</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-201800.2662589596</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-217058.9683589596</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-190110.7687589596</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-175466.6021589596</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-159670.9371589596</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-151383.0124589596</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-132422.0337589596</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-139227.7388589596</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-138277.7388589596</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-223505.8400589595</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-226478.1185589595</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-182078.1185589595</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-236243.2447589595</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3883,10 +3883,14 @@
         <v>-363415.3169324059</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>35.3</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
@@ -3916,11 +3920,19 @@
         <v>-362365.8907324059</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="J107" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +3961,19 @@
         <v>-374966.1688324059</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="J108" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,10 +4002,14 @@
         <v>-374966.1688324059</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="J109" t="n">
+        <v>35.5</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
@@ -4015,7 +4039,7 @@
         <v>-374966.1688324059</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>35.5</v>
@@ -4023,7 +4047,11 @@
       <c r="J110" t="n">
         <v>35.5</v>
       </c>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4080,7 @@
         <v>-433228.3086324059</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>35.5</v>
@@ -4093,7 +4121,7 @@
         <v>-430083.2963324059</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>35.2</v>
@@ -4134,7 +4162,7 @@
         <v>-430083.2963324059</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>35.3</v>
@@ -4175,7 +4203,7 @@
         <v>-323629.650932406</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>35.3</v>
@@ -4216,11 +4244,9 @@
         <v>-272676.488432406</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>35.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
         <v>35.5</v>
       </c>
@@ -4257,11 +4283,9 @@
         <v>-274051.470632406</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>35.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
         <v>35.5</v>
       </c>
@@ -4298,11 +4322,9 @@
         <v>-274051.470632406</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>35.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
         <v>35.5</v>
       </c>
@@ -4339,7 +4361,7 @@
         <v>-274051.470632406</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>35.5</v>
@@ -4380,7 +4402,7 @@
         <v>-274041.470632406</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>35.5</v>
@@ -4421,7 +4443,7 @@
         <v>-280941.470632406</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>35.7</v>
@@ -4462,7 +4484,7 @@
         <v>-280941.470632406</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>35.4</v>
@@ -4503,7 +4525,7 @@
         <v>-266022.811432406</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>35.4</v>
@@ -4544,7 +4566,7 @@
         <v>-286694.902432406</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>35.8</v>
@@ -4585,9 +4607,11 @@
         <v>-284609.347432406</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>35.6</v>
+      </c>
       <c r="J124" t="n">
         <v>35.5</v>
       </c>
@@ -4663,7 +4687,7 @@
         <v>-380192.351032406</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>35.5</v>
@@ -4704,7 +4728,7 @@
         <v>-380192.351032406</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>35.4</v>
@@ -4745,7 +4769,7 @@
         <v>-365845.369732406</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>35.4</v>
@@ -4786,7 +4810,7 @@
         <v>-358351.4484324061</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>35.5</v>
@@ -4827,7 +4851,7 @@
         <v>-372932.1254324061</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>35.7</v>
@@ -4868,7 +4892,7 @@
         <v>-372932.1254324061</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>35.6</v>
@@ -4909,7 +4933,7 @@
         <v>-367651.3938324061</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>35.6</v>
@@ -4950,7 +4974,7 @@
         <v>-370216.6427324061</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>35.7</v>
@@ -4991,9 +5015,11 @@
         <v>-381743.3048324061</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>35.6</v>
+      </c>
       <c r="J134" t="n">
         <v>35.5</v>
       </c>
@@ -5030,9 +5056,11 @@
         <v>-381743.3048324061</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>35.5</v>
+      </c>
       <c r="J135" t="n">
         <v>35.5</v>
       </c>
@@ -5069,7 +5097,7 @@
         <v>-380634.0361324061</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>35.5</v>
@@ -5088,6 +5116,6 @@
       <c r="M136" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest LRC.xlsx
+++ b/BackTest/2019-10-27 BackTest LRC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-204969.5865589596</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-151877.5865589596</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-76972.97425895957</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>34934.90584104043</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>67987.24014104043</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>12492.12204104043</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-30836.50425895958</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>36442.06484104042</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-34602.39035895958</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>27405.26434104042</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>28137.26434104042</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2665.12104104042</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2705.12104104042</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2705.12104104042</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-109076.8186589596</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-104324.8644589596</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-104314.8644589596</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-107855.8644589596</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-130142.3122589596</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-200132.6308589596</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-157873.5138589596</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-150016.5138589596</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-150016.5138589596</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-150016.5138589596</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-171419.9936589596</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-190110.7687589596</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-175466.6021589596</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-159670.9371589596</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-151383.0124589596</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-132422.0337589596</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-139227.7388589596</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-138277.7388589596</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2629,10 +2629,14 @@
         <v>-218023.1185589595</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="J68" t="n">
+        <v>34.6</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
@@ -2665,8 +2669,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2705,19 @@
         <v>-182078.1185589595</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,10 +2746,14 @@
         <v>-182078.1185589595</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>35</v>
+      </c>
+      <c r="J71" t="n">
+        <v>35</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
@@ -2764,8 +2786,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>35</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +2825,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>35</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +2864,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>35</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +2903,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>35</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +2942,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>35</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +2981,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>35</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3020,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>35</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3059,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>35</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3098,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>35</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3137,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>35</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3176,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>35</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3215,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>35</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3254,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>35</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3293,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>35</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3332,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>35</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3371,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>35</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3410,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>35</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3449,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>35</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3488,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>35</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3527,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>35</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3566,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>35</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3605,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>35</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3644,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>35</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3683,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>35</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3722,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>35</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3761,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>35</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3800,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>35</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +3839,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>35</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3875,19 @@
         <v>-376833.7495324059</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>35</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3916,19 @@
         <v>-376833.7495324059</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>35</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3957,19 @@
         <v>-376833.7495324059</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="J102" t="n">
+        <v>35</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4001,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>35</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4040,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>35</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4079,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>35</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,15 +4115,17 @@
         <v>-363415.3169324059</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>35.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,17 +4154,15 @@
         <v>-362365.8907324059</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>35.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -3961,17 +4193,15 @@
         <v>-374966.1688324059</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>35.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L108" t="n">
@@ -4002,15 +4232,17 @@
         <v>-374966.1688324059</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>35.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4039,17 +4271,15 @@
         <v>-374966.1688324059</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>35.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -4080,17 +4310,15 @@
         <v>-433228.3086324059</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>35.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -4121,13 +4349,11 @@
         <v>-430083.2963324059</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>35.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4162,13 +4388,11 @@
         <v>-430083.2963324059</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>35.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4203,13 +4427,11 @@
         <v>-323629.650932406</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>35.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4248,7 +4470,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4287,7 +4509,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4326,7 +4548,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4361,13 +4583,11 @@
         <v>-274051.470632406</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>35.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4402,13 +4622,11 @@
         <v>-274041.470632406</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>35.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4443,13 +4661,11 @@
         <v>-280941.470632406</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>35.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4484,13 +4700,11 @@
         <v>-280941.470632406</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>35.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4525,13 +4739,11 @@
         <v>-266022.811432406</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>35.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4566,13 +4778,11 @@
         <v>-286694.902432406</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>35.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4607,13 +4817,11 @@
         <v>-284609.347432406</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>35.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4652,7 +4860,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4687,13 +4895,11 @@
         <v>-380192.351032406</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>35.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4728,13 +4934,11 @@
         <v>-380192.351032406</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>35.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4769,13 +4973,11 @@
         <v>-365845.369732406</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>35.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4810,13 +5012,11 @@
         <v>-358351.4484324061</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>35.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4851,13 +5051,11 @@
         <v>-372932.1254324061</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>35.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4892,13 +5090,11 @@
         <v>-372932.1254324061</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>35.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -4933,13 +5129,11 @@
         <v>-367651.3938324061</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>35.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -4974,13 +5168,11 @@
         <v>-370216.6427324061</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>35.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5021,7 +5213,7 @@
         <v>35.6</v>
       </c>
       <c r="J134" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5062,7 +5254,7 @@
         <v>35.5</v>
       </c>
       <c r="J135" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5097,13 +5289,11 @@
         <v>-380634.0361324061</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>35.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5116,6 +5306,6 @@
       <c r="M136" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest LRC.xlsx
+++ b/BackTest/2019-10-27 BackTest LRC.xlsx
@@ -451,7 +451,7 @@
         <v>-204969.5865589596</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-151877.5865589596</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-76972.97425895957</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>34934.90584104043</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>67987.24014104043</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-30836.50425895958</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>36442.06484104042</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-34602.39035895958</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>27405.26434104042</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>28137.26434104042</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2665.12104104042</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2705.12104104042</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2705.12104104042</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-109076.8186589596</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-104324.8644589596</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-107855.8644589596</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-130142.3122589596</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-171419.9936589596</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-209315.4113589596</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-209315.4113589596</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-218960.0411589596</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-218960.0411589596</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-201800.2662589596</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-217058.9683589596</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-151383.0124589596</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-152862.0124589596</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-132422.0337589596</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-139227.7388589596</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-138277.7388589596</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-138277.7388589596</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-138255.9333589596</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-174280.9753589596</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-152776.3383589596</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-153841.3383589596</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-158689.0770589595</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-159607.2657589595</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-168713.1055589595</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2629,14 +2629,10 @@
         <v>-218023.1185589595</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="J68" t="n">
-        <v>34.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
@@ -2669,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2705,19 +2695,11 @@
         <v>-182078.1185589595</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="J70" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2746,14 +2728,10 @@
         <v>-182078.1185589595</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>35</v>
-      </c>
-      <c r="J71" t="n">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
@@ -2786,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>35</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2825,1502 +2797,1274 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C74" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E74" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3294.797</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-180588.5245589595</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C75" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D75" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E75" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1240.327</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-180588.5245589595</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C76" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D76" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E76" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="F76" t="n">
+        <v>17282.6801</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-180588.5245589595</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="C77" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="D77" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="E77" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="F77" t="n">
+        <v>55654.7202</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-236243.2447589595</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C78" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D78" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F78" t="n">
+        <v>24293.5083</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-260536.7530589596</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="C79" t="n">
         <v>35</v>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="D79" t="n">
+        <v>35</v>
+      </c>
+      <c r="E79" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="F79" t="n">
+        <v>6022.3809</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-254514.3721589596</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1312.6756</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-253201.6965589596</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C81" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E81" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1884</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-251317.6965589596</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="C82" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="D82" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="E82" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2569.3269</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-253887.0234589596</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="C83" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="D83" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="E83" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1477.8131</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-253887.0234589596</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="C84" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="D84" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="E84" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2316.793726553673</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-251570.2297324059</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>86.4689</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-251656.6986324059</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>9622</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-251656.6986324059</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>15286.4247</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-251656.6986324059</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>38122.0251</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-251656.6986324059</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="C89" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="E89" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1231.2168</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-250425.4818324059</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="C90" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="D90" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="E90" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1141.3311</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-250425.4818324059</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3238.636</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-253664.1178324059</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>35</v>
+      </c>
+      <c r="D92" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>35</v>
+      </c>
+      <c r="F92" t="n">
+        <v>105504.2889</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-359168.4067324059</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>25049.0282</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-334119.3785324059</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>35</v>
+      </c>
+      <c r="C94" t="n">
+        <v>35</v>
+      </c>
+      <c r="D94" t="n">
+        <v>35</v>
+      </c>
+      <c r="E94" t="n">
+        <v>35</v>
+      </c>
+      <c r="F94" t="n">
+        <v>65561.3713</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-399680.7498324059</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>35</v>
+      </c>
+      <c r="D95" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E95" t="n">
+        <v>35</v>
+      </c>
+      <c r="F95" t="n">
+        <v>50576</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-399680.7498324059</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>35</v>
+      </c>
+      <c r="D96" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>35</v>
+      </c>
+      <c r="F96" t="n">
+        <v>7321.4208</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-399680.7498324059</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>35</v>
+      </c>
+      <c r="C97" t="n">
+        <v>35</v>
+      </c>
+      <c r="D97" t="n">
+        <v>35</v>
+      </c>
+      <c r="E97" t="n">
+        <v>35</v>
+      </c>
+      <c r="F97" t="n">
+        <v>27737.8293</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-399680.7498324059</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>35</v>
+      </c>
+      <c r="C98" t="n">
+        <v>35</v>
+      </c>
+      <c r="D98" t="n">
+        <v>35</v>
+      </c>
+      <c r="E98" t="n">
+        <v>35</v>
+      </c>
+      <c r="F98" t="n">
+        <v>671.4166</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-399680.7498324059</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="C99" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="D99" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="E99" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2912.1278</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-396768.6220324059</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C100" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E100" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>19934.8725</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-376833.7495324059</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C101" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="D101" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E101" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="F101" t="n">
+        <v>5842.779</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-376833.7495324059</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C102" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="D102" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E102" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>4754.0867</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-376833.7495324059</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="C103" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="E103" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="F103" t="n">
+        <v>3375</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-380208.7495324059</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C104" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="D104" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E104" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="F104" t="n">
+        <v>8407.2253</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-371801.5242324059</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C105" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="D105" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E105" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3306.818</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-371801.5242324059</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="C106" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="D106" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="E106" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="F106" t="n">
+        <v>8386.2073</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-363415.3169324059</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C107" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="D107" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="E107" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1049.4262</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-362365.8907324059</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C108" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="D108" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E108" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>12600.2781</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-374966.1688324059</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C109" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E109" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4585.836</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-374966.1688324059</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E110" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2812.3366</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-374966.1688324059</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="J110" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="C111" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="E111" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="F111" t="n">
+        <v>58262.1398</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-433228.3086324059</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="J111" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="C74" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="D74" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="E74" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="F74" t="n">
-        <v>3294.797</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-180588.5245589595</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>35</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="C75" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="D75" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="E75" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1240.327</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-180588.5245589595</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>35</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="C76" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="D76" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="E76" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="F76" t="n">
-        <v>17282.6801</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-180588.5245589595</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>35</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="C77" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="D77" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="E77" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="F77" t="n">
-        <v>55654.7202</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-236243.2447589595</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>35</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C78" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D78" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E78" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F78" t="n">
-        <v>24293.5083</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-260536.7530589596</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>35</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="C79" t="n">
-        <v>35</v>
-      </c>
-      <c r="D79" t="n">
-        <v>35</v>
-      </c>
-      <c r="E79" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="F79" t="n">
-        <v>6022.3809</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-254514.3721589596</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>35</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="C80" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="D80" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="E80" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1312.6756</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-253201.6965589596</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>35</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="C81" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="D81" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="E81" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1884</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-251317.6965589596</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>35</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="C82" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="D82" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="E82" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="F82" t="n">
-        <v>2569.3269</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-253887.0234589596</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>35</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="C83" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="D83" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="E83" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1477.8131</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-253887.0234589596</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>35</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="C84" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="D84" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="E84" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2316.793726553673</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-251570.2297324059</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>35</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="C85" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="D85" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="E85" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="F85" t="n">
-        <v>86.4689</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-251656.6986324059</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>35</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="C86" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="D86" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="E86" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="F86" t="n">
-        <v>9622</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-251656.6986324059</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>35</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="C87" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="D87" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="E87" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="F87" t="n">
-        <v>15286.4247</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-251656.6986324059</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>35</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="C88" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="D88" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="E88" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="F88" t="n">
-        <v>38122.0251</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-251656.6986324059</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>35</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="C89" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="D89" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="E89" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1231.2168</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-250425.4818324059</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>35</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="C90" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="D90" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="E90" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1141.3311</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-250425.4818324059</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>35</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="C91" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="D91" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="E91" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="F91" t="n">
-        <v>3238.636</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-253664.1178324059</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>35</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="C92" t="n">
-        <v>35</v>
-      </c>
-      <c r="D92" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="E92" t="n">
-        <v>35</v>
-      </c>
-      <c r="F92" t="n">
-        <v>105504.2889</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-359168.4067324059</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>35</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="C93" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="D93" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="E93" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="F93" t="n">
-        <v>25049.0282</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-334119.3785324059</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>35</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>35</v>
-      </c>
-      <c r="C94" t="n">
-        <v>35</v>
-      </c>
-      <c r="D94" t="n">
-        <v>35</v>
-      </c>
-      <c r="E94" t="n">
-        <v>35</v>
-      </c>
-      <c r="F94" t="n">
-        <v>65561.3713</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-399680.7498324059</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>35</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="C95" t="n">
-        <v>35</v>
-      </c>
-      <c r="D95" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="E95" t="n">
-        <v>35</v>
-      </c>
-      <c r="F95" t="n">
-        <v>50576</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-399680.7498324059</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>35</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="C96" t="n">
-        <v>35</v>
-      </c>
-      <c r="D96" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="E96" t="n">
-        <v>35</v>
-      </c>
-      <c r="F96" t="n">
-        <v>7321.4208</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-399680.7498324059</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>35</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>35</v>
-      </c>
-      <c r="C97" t="n">
-        <v>35</v>
-      </c>
-      <c r="D97" t="n">
-        <v>35</v>
-      </c>
-      <c r="E97" t="n">
-        <v>35</v>
-      </c>
-      <c r="F97" t="n">
-        <v>27737.8293</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-399680.7498324059</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>35</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>35</v>
-      </c>
-      <c r="C98" t="n">
-        <v>35</v>
-      </c>
-      <c r="D98" t="n">
-        <v>35</v>
-      </c>
-      <c r="E98" t="n">
-        <v>35</v>
-      </c>
-      <c r="F98" t="n">
-        <v>671.4166</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-399680.7498324059</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>35</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="C99" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="D99" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="E99" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="F99" t="n">
-        <v>2912.1278</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-396768.6220324059</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>35</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="C100" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="D100" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="E100" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="F100" t="n">
-        <v>19934.8725</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-376833.7495324059</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="J100" t="n">
-        <v>35</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="C101" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="D101" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="E101" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="F101" t="n">
-        <v>5842.779</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-376833.7495324059</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="J101" t="n">
-        <v>35</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="C102" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="D102" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="E102" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="F102" t="n">
-        <v>4754.0867</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-376833.7495324059</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="J102" t="n">
-        <v>35</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="C103" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="D103" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="E103" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="F103" t="n">
-        <v>3375</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-380208.7495324059</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>35</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="C104" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="D104" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="E104" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="F104" t="n">
-        <v>8407.2253</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-371801.5242324059</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>35</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="C105" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="D105" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="E105" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="F105" t="n">
-        <v>3306.818</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-371801.5242324059</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>35</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="C106" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="D106" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="E106" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="F106" t="n">
-        <v>8386.2073</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-363415.3169324059</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>35</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="C107" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="D107" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="E107" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1049.4262</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-362365.8907324059</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>35</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="C108" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="D108" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="E108" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="F108" t="n">
-        <v>12600.2781</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-374966.1688324059</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>35</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="C109" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="D109" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="E109" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="F109" t="n">
-        <v>4585.836</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-374966.1688324059</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>35</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="C110" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="D110" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="E110" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="F110" t="n">
-        <v>2812.3366</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-374966.1688324059</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>35</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="C111" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="D111" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="E111" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="F111" t="n">
-        <v>58262.1398</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-433228.3086324059</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>35</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4349,11 +4093,13 @@
         <v>-430083.2963324059</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>35.2</v>
+      </c>
       <c r="J112" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4388,11 +4134,13 @@
         <v>-430083.2963324059</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>35.3</v>
+      </c>
       <c r="J113" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4427,11 +4175,13 @@
         <v>-323629.650932406</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>35.3</v>
+      </c>
       <c r="J114" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4466,11 +4216,13 @@
         <v>-272676.488432406</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>35.4</v>
+      </c>
       <c r="J115" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4505,11 +4257,13 @@
         <v>-274051.470632406</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>35.6</v>
+      </c>
       <c r="J116" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4544,11 +4298,13 @@
         <v>-274051.470632406</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>35.5</v>
+      </c>
       <c r="J117" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4583,11 +4339,13 @@
         <v>-274051.470632406</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>35.5</v>
+      </c>
       <c r="J118" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4622,11 +4380,13 @@
         <v>-274041.470632406</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>35.5</v>
+      </c>
       <c r="J119" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4661,11 +4421,13 @@
         <v>-280941.470632406</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>35.7</v>
+      </c>
       <c r="J120" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4700,11 +4462,13 @@
         <v>-280941.470632406</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>35.4</v>
+      </c>
       <c r="J121" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4739,11 +4503,13 @@
         <v>-266022.811432406</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>35.4</v>
+      </c>
       <c r="J122" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4778,11 +4544,13 @@
         <v>-286694.902432406</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>35.8</v>
+      </c>
       <c r="J123" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4817,11 +4585,13 @@
         <v>-284609.347432406</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>35.6</v>
+      </c>
       <c r="J124" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4856,11 +4626,13 @@
         <v>-337259.347432406</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>36</v>
+      </c>
       <c r="J125" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4895,11 +4667,13 @@
         <v>-380192.351032406</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>35.5</v>
+      </c>
       <c r="J126" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4934,11 +4708,13 @@
         <v>-380192.351032406</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>35.4</v>
+      </c>
       <c r="J127" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4973,11 +4749,13 @@
         <v>-365845.369732406</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>35.4</v>
+      </c>
       <c r="J128" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5012,11 +4790,13 @@
         <v>-358351.4484324061</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>35.5</v>
+      </c>
       <c r="J129" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5051,11 +4831,13 @@
         <v>-372932.1254324061</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>35.7</v>
+      </c>
       <c r="J130" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5090,11 +4872,13 @@
         <v>-372932.1254324061</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>35.6</v>
+      </c>
       <c r="J131" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5129,11 +4913,13 @@
         <v>-367651.3938324061</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>35.6</v>
+      </c>
       <c r="J132" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5168,11 +4954,13 @@
         <v>-370216.6427324061</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>35.7</v>
+      </c>
       <c r="J133" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5213,7 +5001,7 @@
         <v>35.6</v>
       </c>
       <c r="J134" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5254,7 +5042,7 @@
         <v>35.5</v>
       </c>
       <c r="J135" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5289,11 +5077,13 @@
         <v>-380634.0361324061</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>35.5</v>
+      </c>
       <c r="J136" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>

--- a/BackTest/2019-10-27 BackTest LRC.xlsx
+++ b/BackTest/2019-10-27 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:L136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>339412.8899</v>
       </c>
       <c r="G2" t="n">
-        <v>-204969.5865589596</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>53092</v>
       </c>
       <c r="G3" t="n">
-        <v>-151877.5865589596</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>74904.61229999999</v>
       </c>
       <c r="G4" t="n">
-        <v>-76972.97425895957</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>111907.8801</v>
       </c>
       <c r="G5" t="n">
-        <v>34934.90584104043</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>33052.3343</v>
       </c>
       <c r="G6" t="n">
-        <v>67987.24014104043</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>55495.1181</v>
       </c>
       <c r="G7" t="n">
-        <v>12492.12204104043</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>43328.6263</v>
       </c>
       <c r="G8" t="n">
-        <v>-30836.50425895958</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>67278.56909999999</v>
       </c>
       <c r="G9" t="n">
-        <v>36442.06484104042</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>71044.4552</v>
       </c>
       <c r="G10" t="n">
-        <v>-34602.39035895958</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>62007.6547</v>
       </c>
       <c r="G11" t="n">
-        <v>27405.26434104042</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>732</v>
       </c>
       <c r="G12" t="n">
-        <v>28137.26434104042</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>15953.2821</v>
       </c>
       <c r="G13" t="n">
-        <v>12183.98224104042</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>9518.861199999999</v>
       </c>
       <c r="G14" t="n">
-        <v>2665.12104104042</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>40</v>
       </c>
       <c r="G15" t="n">
-        <v>2705.12104104042</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>29218</v>
       </c>
       <c r="G16" t="n">
-        <v>2705.12104104042</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>111781.9397</v>
       </c>
       <c r="G17" t="n">
-        <v>-109076.8186589596</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>4751.9542</v>
       </c>
       <c r="G18" t="n">
-        <v>-104324.8644589596</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>-104314.8644589596</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>3541</v>
       </c>
       <c r="G20" t="n">
-        <v>-107855.8644589596</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>22286.4478</v>
       </c>
       <c r="G21" t="n">
-        <v>-130142.3122589596</v>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>69990.3186</v>
       </c>
       <c r="G22" t="n">
-        <v>-200132.6308589596</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>42259.117</v>
       </c>
       <c r="G23" t="n">
-        <v>-157873.5138589596</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>7857</v>
       </c>
       <c r="G24" t="n">
-        <v>-150016.5138589596</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>24907.0825</v>
       </c>
       <c r="G25" t="n">
-        <v>-150016.5138589596</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>520.6953999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>-150016.5138589596</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>21403.4798</v>
       </c>
       <c r="G27" t="n">
-        <v>-171419.9936589596</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>22737.6286</v>
       </c>
       <c r="G28" t="n">
-        <v>-148682.3650589596</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>75978.4532</v>
       </c>
       <c r="G29" t="n">
-        <v>-224660.8182589596</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>15345.4069</v>
       </c>
       <c r="G30" t="n">
-        <v>-209315.4113589596</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>14736.8589</v>
       </c>
       <c r="G31" t="n">
-        <v>-209315.4113589596</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>9644.629800000001</v>
       </c>
       <c r="G32" t="n">
-        <v>-218960.0411589596</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>15576.6738</v>
       </c>
       <c r="G33" t="n">
-        <v>-218960.0411589596</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>17159.7749</v>
       </c>
       <c r="G34" t="n">
-        <v>-201800.2662589596</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>15258.7021</v>
       </c>
       <c r="G35" t="n">
-        <v>-217058.9683589596</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>26948.1996</v>
       </c>
       <c r="G36" t="n">
-        <v>-190110.7687589596</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>14644.1666</v>
       </c>
       <c r="G37" t="n">
-        <v>-175466.6021589596</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>15795.665</v>
       </c>
       <c r="G38" t="n">
-        <v>-159670.9371589596</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>8287.9247</v>
       </c>
       <c r="G39" t="n">
-        <v>-151383.0124589596</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>1479</v>
       </c>
       <c r="G40" t="n">
-        <v>-152862.0124589596</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>20439.9787</v>
       </c>
       <c r="G41" t="n">
-        <v>-132422.0337589596</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>6805.7051</v>
       </c>
       <c r="G42" t="n">
-        <v>-139227.7388589596</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>950</v>
       </c>
       <c r="G43" t="n">
-        <v>-138277.7388589596</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>2427</v>
       </c>
       <c r="G44" t="n">
-        <v>-138277.7388589596</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>21.8055</v>
       </c>
       <c r="G45" t="n">
-        <v>-138255.9333589596</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>36025.042</v>
       </c>
       <c r="G46" t="n">
-        <v>-174280.9753589596</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>23254.2954</v>
       </c>
       <c r="G47" t="n">
-        <v>-151026.6799589596</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1776.6364</v>
       </c>
       <c r="G48" t="n">
-        <v>-152803.3163589596</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>26.978</v>
       </c>
       <c r="G49" t="n">
-        <v>-152776.3383589596</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1065</v>
       </c>
       <c r="G50" t="n">
-        <v>-153841.3383589596</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>4847.7387</v>
       </c>
       <c r="G51" t="n">
-        <v>-158689.0770589595</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>918.1887</v>
       </c>
       <c r="G52" t="n">
-        <v>-159607.2657589595</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>3583.7033</v>
       </c>
       <c r="G53" t="n">
-        <v>-163190.9690589595</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>7317.9465</v>
       </c>
       <c r="G54" t="n">
-        <v>-170508.9155589595</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>5111.666</v>
       </c>
       <c r="G55" t="n">
-        <v>-170508.9155589595</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>8290.1685</v>
       </c>
       <c r="G56" t="n">
-        <v>-178799.0840589595</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>0.0005</v>
       </c>
       <c r="G57" t="n">
-        <v>-178799.0835589595</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1460.759</v>
       </c>
       <c r="G58" t="n">
-        <v>-178799.0835589595</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>2718.989</v>
       </c>
       <c r="G59" t="n">
-        <v>-176080.0945589595</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>8664.989</v>
       </c>
       <c r="G60" t="n">
-        <v>-167415.1055589595</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>5786.3401</v>
       </c>
       <c r="G61" t="n">
-        <v>-167415.1055589595</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>1298</v>
       </c>
       <c r="G62" t="n">
-        <v>-168713.1055589595</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>2242.7345</v>
       </c>
       <c r="G63" t="n">
-        <v>-170955.8400589595</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>500</v>
       </c>
       <c r="G64" t="n">
-        <v>-171455.8400589595</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>52050</v>
       </c>
       <c r="G65" t="n">
-        <v>-223505.8400589595</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1356.72</v>
       </c>
       <c r="G66" t="n">
-        <v>-223505.8400589595</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>2216.2847</v>
       </c>
       <c r="G67" t="n">
-        <v>-223505.8400589595</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>5482.7215</v>
       </c>
       <c r="G68" t="n">
-        <v>-218023.1185589595</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>8455</v>
       </c>
       <c r="G69" t="n">
-        <v>-226478.1185589595</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>44400</v>
       </c>
       <c r="G70" t="n">
-        <v>-182078.1185589595</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>16706.9609</v>
       </c>
       <c r="G71" t="n">
-        <v>-182078.1185589595</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>3294.797</v>
       </c>
       <c r="G72" t="n">
-        <v>-178783.3215589595</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>5100</v>
       </c>
       <c r="G73" t="n">
-        <v>-183883.3215589595</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>3294.797</v>
       </c>
       <c r="G74" t="n">
-        <v>-180588.5245589595</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,19 @@
         <v>1240.327</v>
       </c>
       <c r="G75" t="n">
-        <v>-180588.5245589595</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="I75" t="n">
+        <v>34.8</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2667,23 @@
         <v>17282.6801</v>
       </c>
       <c r="G76" t="n">
-        <v>-180588.5245589595</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="I76" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2705,23 @@
         <v>55654.7202</v>
       </c>
       <c r="G77" t="n">
-        <v>-236243.2447589595</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="I77" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2743,23 @@
         <v>24293.5083</v>
       </c>
       <c r="G78" t="n">
-        <v>-260536.7530589596</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>34.7</v>
+      </c>
+      <c r="I78" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2781,23 @@
         <v>6022.3809</v>
       </c>
       <c r="G79" t="n">
-        <v>-254514.3721589596</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>34.5</v>
+      </c>
+      <c r="I79" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2819,21 @@
         <v>1312.6756</v>
       </c>
       <c r="G80" t="n">
-        <v>-253201.6965589596</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2855,21 @@
         <v>1884</v>
       </c>
       <c r="G81" t="n">
-        <v>-251317.6965589596</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2891,21 @@
         <v>2569.3269</v>
       </c>
       <c r="G82" t="n">
-        <v>-253887.0234589596</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2927,21 @@
         <v>1477.8131</v>
       </c>
       <c r="G83" t="n">
-        <v>-253887.0234589596</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2963,21 @@
         <v>2316.793726553673</v>
       </c>
       <c r="G84" t="n">
-        <v>-251570.2297324059</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2999,21 @@
         <v>86.4689</v>
       </c>
       <c r="G85" t="n">
-        <v>-251656.6986324059</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3035,21 @@
         <v>9622</v>
       </c>
       <c r="G86" t="n">
-        <v>-251656.6986324059</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3071,21 @@
         <v>15286.4247</v>
       </c>
       <c r="G87" t="n">
-        <v>-251656.6986324059</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3107,21 @@
         <v>38122.0251</v>
       </c>
       <c r="G88" t="n">
-        <v>-251656.6986324059</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3143,21 @@
         <v>1231.2168</v>
       </c>
       <c r="G89" t="n">
-        <v>-250425.4818324059</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3179,21 @@
         <v>1141.3311</v>
       </c>
       <c r="G90" t="n">
-        <v>-250425.4818324059</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3215,21 @@
         <v>3238.636</v>
       </c>
       <c r="G91" t="n">
-        <v>-253664.1178324059</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3251,21 @@
         <v>105504.2889</v>
       </c>
       <c r="G92" t="n">
-        <v>-359168.4067324059</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3287,21 @@
         <v>25049.0282</v>
       </c>
       <c r="G93" t="n">
-        <v>-334119.3785324059</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3323,21 @@
         <v>65561.3713</v>
       </c>
       <c r="G94" t="n">
-        <v>-399680.7498324059</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3359,21 @@
         <v>50576</v>
       </c>
       <c r="G95" t="n">
-        <v>-399680.7498324059</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3395,21 @@
         <v>7321.4208</v>
       </c>
       <c r="G96" t="n">
-        <v>-399680.7498324059</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3431,21 @@
         <v>27737.8293</v>
       </c>
       <c r="G97" t="n">
-        <v>-399680.7498324059</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3467,21 @@
         <v>671.4166</v>
       </c>
       <c r="G98" t="n">
-        <v>-399680.7498324059</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3503,23 @@
         <v>2912.1278</v>
       </c>
       <c r="G99" t="n">
-        <v>-396768.6220324059</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="I99" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3541,23 @@
         <v>19934.8725</v>
       </c>
       <c r="G100" t="n">
-        <v>-376833.7495324059</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>35.2</v>
+      </c>
+      <c r="I100" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3579,23 @@
         <v>5842.779</v>
       </c>
       <c r="G101" t="n">
-        <v>-376833.7495324059</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>35.3</v>
+      </c>
+      <c r="I101" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3617,23 @@
         <v>4754.0867</v>
       </c>
       <c r="G102" t="n">
-        <v>-376833.7495324059</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>35.3</v>
+      </c>
+      <c r="I102" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3655,23 @@
         <v>3375</v>
       </c>
       <c r="G103" t="n">
-        <v>-380208.7495324059</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>35.3</v>
+      </c>
+      <c r="I103" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3693,23 @@
         <v>8407.2253</v>
       </c>
       <c r="G104" t="n">
-        <v>-371801.5242324059</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>35.2</v>
+      </c>
+      <c r="I104" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3731,21 @@
         <v>3306.818</v>
       </c>
       <c r="G105" t="n">
-        <v>-371801.5242324059</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3767,23 @@
         <v>8386.2073</v>
       </c>
       <c r="G106" t="n">
-        <v>-363415.3169324059</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>35.3</v>
+      </c>
+      <c r="I106" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3805,21 @@
         <v>1049.4262</v>
       </c>
       <c r="G107" t="n">
-        <v>-362365.8907324059</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3841,21 @@
         <v>12600.2781</v>
       </c>
       <c r="G108" t="n">
-        <v>-374966.1688324059</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3877,23 @@
         <v>4585.836</v>
       </c>
       <c r="G109" t="n">
-        <v>-374966.1688324059</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>35.5</v>
+      </c>
+      <c r="I109" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,22 +3915,23 @@
         <v>2812.3366</v>
       </c>
       <c r="G110" t="n">
-        <v>-374966.1688324059</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>35.5</v>
       </c>
       <c r="I110" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="J110" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4049,26 +3953,23 @@
         <v>58262.1398</v>
       </c>
       <c r="G111" t="n">
-        <v>-433228.3086324059</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>35.5</v>
       </c>
       <c r="I111" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="J111" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4090,26 +3991,23 @@
         <v>3145.0123</v>
       </c>
       <c r="G112" t="n">
-        <v>-430083.2963324059</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>35.2</v>
       </c>
       <c r="I112" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="J112" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4131,26 +4029,23 @@
         <v>2244.8058</v>
       </c>
       <c r="G113" t="n">
-        <v>-430083.2963324059</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>35.3</v>
       </c>
       <c r="I113" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="J113" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4172,26 +4067,23 @@
         <v>106453.6454</v>
       </c>
       <c r="G114" t="n">
-        <v>-323629.650932406</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>35.3</v>
       </c>
       <c r="I114" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="J114" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4213,26 +4105,21 @@
         <v>50953.1625</v>
       </c>
       <c r="G115" t="n">
-        <v>-272676.488432406</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="J115" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4254,26 +4141,21 @@
         <v>1374.9822</v>
       </c>
       <c r="G116" t="n">
-        <v>-274051.470632406</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="J116" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4295,26 +4177,21 @@
         <v>56585.074</v>
       </c>
       <c r="G117" t="n">
-        <v>-274051.470632406</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="J117" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4336,26 +4213,21 @@
         <v>1360.5744</v>
       </c>
       <c r="G118" t="n">
-        <v>-274051.470632406</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="J118" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4377,26 +4249,21 @@
         <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>-274041.470632406</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="J119" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4418,26 +4285,21 @@
         <v>6900</v>
       </c>
       <c r="G120" t="n">
-        <v>-280941.470632406</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="J120" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4459,26 +4321,23 @@
         <v>8000</v>
       </c>
       <c r="G121" t="n">
-        <v>-280941.470632406</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>35.4</v>
       </c>
       <c r="I121" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="J121" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4500,26 +4359,23 @@
         <v>14918.6592</v>
       </c>
       <c r="G122" t="n">
-        <v>-266022.811432406</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>35.4</v>
       </c>
       <c r="I122" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="J122" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4541,26 +4397,21 @@
         <v>20672.091</v>
       </c>
       <c r="G123" t="n">
-        <v>-286694.902432406</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="J123" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4582,26 +4433,21 @@
         <v>2085.555</v>
       </c>
       <c r="G124" t="n">
-        <v>-284609.347432406</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="J124" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4623,26 +4469,21 @@
         <v>52650</v>
       </c>
       <c r="G125" t="n">
-        <v>-337259.347432406</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
-        <v>36</v>
-      </c>
-      <c r="J125" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4664,26 +4505,21 @@
         <v>42933.0036</v>
       </c>
       <c r="G126" t="n">
-        <v>-380192.351032406</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="J126" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4705,26 +4541,21 @@
         <v>12000</v>
       </c>
       <c r="G127" t="n">
-        <v>-380192.351032406</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="J127" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4746,26 +4577,21 @@
         <v>14346.9813</v>
       </c>
       <c r="G128" t="n">
-        <v>-365845.369732406</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="J128" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4787,26 +4613,21 @@
         <v>7493.9213</v>
       </c>
       <c r="G129" t="n">
-        <v>-358351.4484324061</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="J129" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4828,26 +4649,21 @@
         <v>14580.677</v>
       </c>
       <c r="G130" t="n">
-        <v>-372932.1254324061</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="J130" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4869,26 +4685,21 @@
         <v>995.9999</v>
       </c>
       <c r="G131" t="n">
-        <v>-372932.1254324061</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="J131" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4910,26 +4721,21 @@
         <v>5280.7316</v>
       </c>
       <c r="G132" t="n">
-        <v>-367651.3938324061</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="J132" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4951,26 +4757,21 @@
         <v>2565.2489</v>
       </c>
       <c r="G133" t="n">
-        <v>-370216.6427324061</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="J133" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4992,26 +4793,21 @@
         <v>11526.6621</v>
       </c>
       <c r="G134" t="n">
-        <v>-381743.3048324061</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="J134" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5033,26 +4829,21 @@
         <v>7500</v>
       </c>
       <c r="G135" t="n">
-        <v>-381743.3048324061</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="J135" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5074,26 +4865,21 @@
         <v>1109.2687</v>
       </c>
       <c r="G136" t="n">
-        <v>-380634.0361324061</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="J136" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>34.8</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
